--- a/data/Downscaleddata/pdfs/bottom thetao_pdf.xlsx
+++ b/data/Downscaleddata/pdfs/bottom thetao_pdf.xlsx
@@ -490,31 +490,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.669953549738531</v>
+        <v>4.62393576720484</v>
       </c>
       <c r="C2" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D2" t="n">
-        <v>4.654237057507927</v>
+        <v>4.67234526363362</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001889147465774385</v>
+        <v>0.0001302485701016903</v>
       </c>
       <c r="F2" t="n">
-        <v>4.654237057507927</v>
+        <v>4.67234526363362</v>
       </c>
       <c r="G2" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H2" t="n">
-        <v>4.669953549738531</v>
+        <v>4.62393576720484</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001984722555595117</v>
+        <v>0.0001374280828555629</v>
       </c>
       <c r="J2" t="n">
-        <v>4.669953549738531</v>
+        <v>4.62393576720484</v>
       </c>
       <c r="K2" t="n">
         <v>0.000155135599501877</v>
@@ -525,31 +525,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.72682579032497</v>
+        <v>4.681039252929638</v>
       </c>
       <c r="C3" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D3" t="n">
-        <v>4.702713668005554</v>
+        <v>4.720730878120564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001984811746617862</v>
+        <v>0.0001368614349485259</v>
       </c>
       <c r="F3" t="n">
-        <v>4.702713668005554</v>
+        <v>4.720730878120564</v>
       </c>
       <c r="G3" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H3" t="n">
-        <v>4.72682579032497</v>
+        <v>4.681039252929638</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001984722555595117</v>
+        <v>0.000147716103860702</v>
       </c>
       <c r="J3" t="n">
-        <v>4.72682579032497</v>
+        <v>4.681039252929638</v>
       </c>
       <c r="K3" t="n">
         <v>0.000155135599501877</v>
@@ -560,31 +560,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.783698030911408</v>
+        <v>4.738142738654438</v>
       </c>
       <c r="C4" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D4" t="n">
-        <v>4.75119027850318</v>
+        <v>4.769116492607509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002123918941094589</v>
+        <v>0.0001466871965759059</v>
       </c>
       <c r="F4" t="n">
-        <v>4.75119027850318</v>
+        <v>4.769116492607509</v>
       </c>
       <c r="G4" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H4" t="n">
-        <v>4.783698030911408</v>
+        <v>4.738142738654438</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001984722555595117</v>
+        <v>0.0001638876887894187</v>
       </c>
       <c r="J4" t="n">
-        <v>4.783698030911408</v>
+        <v>4.738142738654438</v>
       </c>
       <c r="K4" t="n">
         <v>0.000155135599501877</v>
@@ -595,31 +595,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.840570271497847</v>
+        <v>4.795246224379237</v>
       </c>
       <c r="C5" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D5" t="n">
-        <v>4.799666889000807</v>
+        <v>4.817502107094453</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002337564454522819</v>
+        <v>0.0001610957572614402</v>
       </c>
       <c r="F5" t="n">
-        <v>4.799666889000807</v>
+        <v>4.817502107094453</v>
       </c>
       <c r="G5" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840570271497847</v>
+        <v>4.795246224379237</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001984722555595117</v>
+        <v>0.0001884439357052471</v>
       </c>
       <c r="J5" t="n">
-        <v>4.840570271497847</v>
+        <v>4.795246224379237</v>
       </c>
       <c r="K5" t="n">
         <v>0.000155135599501877</v>
@@ -630,31 +630,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.897442512084286</v>
+        <v>4.852349710104035</v>
       </c>
       <c r="C6" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D6" t="n">
-        <v>4.848143499498432</v>
+        <v>4.865887721581397</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002688013314450373</v>
+        <v>0.0001826668637920283</v>
       </c>
       <c r="F6" t="n">
-        <v>4.848143499498432</v>
+        <v>4.865887721581397</v>
       </c>
       <c r="G6" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H6" t="n">
-        <v>4.897442512084286</v>
+        <v>4.852349710104035</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001984722555595117</v>
+        <v>0.0002260586746777061</v>
       </c>
       <c r="J6" t="n">
-        <v>4.897442512084286</v>
+        <v>4.852349710104035</v>
       </c>
       <c r="K6" t="n">
         <v>0.000155135599501877</v>
@@ -665,31 +665,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.954314752670725</v>
+        <v>4.909453195828835</v>
       </c>
       <c r="C7" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D7" t="n">
-        <v>4.896620109996059</v>
+        <v>4.914273336068342</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003345630694341743</v>
+        <v>0.0002126754160174265</v>
       </c>
       <c r="F7" t="n">
-        <v>4.896620109996059</v>
+        <v>4.914273336068342</v>
       </c>
       <c r="G7" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H7" t="n">
-        <v>4.954314752670725</v>
+        <v>4.909453195828835</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002063646204965288</v>
+        <v>0.00027935730174408</v>
       </c>
       <c r="J7" t="n">
-        <v>4.954314752670725</v>
+        <v>4.909453195828835</v>
       </c>
       <c r="K7" t="n">
         <v>0.000155135599501877</v>
@@ -700,31 +700,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.011186993257163</v>
+        <v>4.966556681553634</v>
       </c>
       <c r="C8" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D8" t="n">
-        <v>4.945096720493686</v>
+        <v>4.962658950555286</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0004313100866080548</v>
+        <v>0.0002623596266033727</v>
       </c>
       <c r="F8" t="n">
-        <v>4.945096720493686</v>
+        <v>4.962658950555286</v>
       </c>
       <c r="G8" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H8" t="n">
-        <v>5.011186993257163</v>
+        <v>4.966556681553634</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002221670441110167</v>
+        <v>0.0003529075076619881</v>
       </c>
       <c r="J8" t="n">
-        <v>5.011186993257163</v>
+        <v>4.966556681553634</v>
       </c>
       <c r="K8" t="n">
         <v>0.000155135599501877</v>
@@ -735,31 +735,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.068059233843602</v>
+        <v>5.023660167278432</v>
       </c>
       <c r="C9" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D9" t="n">
-        <v>4.993573330991311</v>
+        <v>5.011044565042231</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005754654923538714</v>
+        <v>0.0003363211938612701</v>
       </c>
       <c r="F9" t="n">
-        <v>4.993573330991311</v>
+        <v>5.011044565042231</v>
       </c>
       <c r="G9" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H9" t="n">
-        <v>5.068059233843602</v>
+        <v>5.023660167278432</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002474446641422887</v>
+        <v>0.0004528563943235272</v>
       </c>
       <c r="J9" t="n">
-        <v>5.068059233843602</v>
+        <v>5.023660167278432</v>
       </c>
       <c r="K9" t="n">
         <v>0.000155135599501877</v>
@@ -770,31 +770,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.124931474430041</v>
+        <v>5.080763653003232</v>
       </c>
       <c r="C10" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D10" t="n">
-        <v>5.042049941488938</v>
+        <v>5.059430179529175</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0007720679877629469</v>
+        <v>0.0004466622187395632</v>
       </c>
       <c r="F10" t="n">
-        <v>5.042049941488938</v>
+        <v>5.059430179529175</v>
       </c>
       <c r="G10" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H10" t="n">
-        <v>5.124931474430041</v>
+        <v>5.080763653003232</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002853416371698448</v>
+        <v>0.0005880969159073146</v>
       </c>
       <c r="J10" t="n">
-        <v>5.124931474430041</v>
+        <v>5.080763653003232</v>
       </c>
       <c r="K10" t="n">
         <v>0.000155135599501877</v>
@@ -805,31 +805,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.18180371501648</v>
+        <v>5.137867138728031</v>
       </c>
       <c r="C11" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D11" t="n">
-        <v>5.090526551986565</v>
+        <v>5.10781579401612</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00104464304944947</v>
+        <v>0.0005944060533245264</v>
       </c>
       <c r="F11" t="n">
-        <v>5.090526551986565</v>
+        <v>5.10781579401612</v>
       </c>
       <c r="G11" t="n">
         <v>0.000160144390313142</v>
       </c>
       <c r="H11" t="n">
-        <v>5.18180371501648</v>
+        <v>5.137867138728031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000342179213328155</v>
+        <v>0.0007612957233666369</v>
       </c>
       <c r="J11" t="n">
-        <v>5.18180371501648</v>
+        <v>5.137867138728031</v>
       </c>
       <c r="K11" t="n">
         <v>0.000155135599501877</v>
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.238675955602918</v>
+        <v>5.19497062445283</v>
       </c>
       <c r="C12" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D12" t="n">
-        <v>5.13900316248419</v>
+        <v>5.156201408503064</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00140097183263827</v>
+        <v>0.0007951397762954158</v>
       </c>
       <c r="F12" t="n">
-        <v>5.13900316248419</v>
+        <v>5.156201408503064</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001606388181686468</v>
+        <v>0.0001622991875287322</v>
       </c>
       <c r="H12" t="n">
-        <v>5.238675955602918</v>
+        <v>5.19497062445283</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004467579120618411</v>
+        <v>0.0009757870170238553</v>
       </c>
       <c r="J12" t="n">
-        <v>5.238675955602918</v>
+        <v>5.19497062445283</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001551447243687232</v>
+        <v>0.000155135599501877</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.295548196189357</v>
+        <v>5.252074110177629</v>
       </c>
       <c r="C13" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D13" t="n">
-        <v>5.187479772981817</v>
+        <v>5.204587022990008</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001859944671679135</v>
+        <v>0.001059047287097956</v>
       </c>
       <c r="F13" t="n">
-        <v>5.187479772981817</v>
+        <v>5.204587022990008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001657474939971657</v>
+        <v>0.0001679850486450082</v>
       </c>
       <c r="H13" t="n">
-        <v>5.295548196189357</v>
+        <v>5.252074110177629</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0006131488434553755</v>
+        <v>0.001232078242618022</v>
       </c>
       <c r="J13" t="n">
-        <v>5.295548196189357</v>
+        <v>5.252074110177629</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001625228066897975</v>
+        <v>0.0001567369333945332</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.352420436775796</v>
+        <v>5.309177595902428</v>
       </c>
       <c r="C14" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D14" t="n">
-        <v>5.235956383479443</v>
+        <v>5.252972637476953</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002432309228151874</v>
+        <v>0.001402824200069769</v>
       </c>
       <c r="F14" t="n">
-        <v>5.235956383479443</v>
+        <v>5.252972637476953</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001729810435973485</v>
+        <v>0.0001759701340184796</v>
       </c>
       <c r="H14" t="n">
-        <v>5.352420436775796</v>
+        <v>5.309177595902428</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0008638218833555512</v>
+        <v>0.00154760595830888</v>
       </c>
       <c r="J14" t="n">
-        <v>5.352420436775796</v>
+        <v>5.309177595902428</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001729651634498184</v>
+        <v>0.0001646481798648218</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.409292677362235</v>
+        <v>5.366281081627228</v>
       </c>
       <c r="C15" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D15" t="n">
-        <v>5.284432993977069</v>
+        <v>5.301358251963897</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003160527072844123</v>
+        <v>0.001836853532578369</v>
       </c>
       <c r="F15" t="n">
-        <v>5.284432993977069</v>
+        <v>5.301358251963897</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000183085461699823</v>
+        <v>0.0001872784827944726</v>
       </c>
       <c r="H15" t="n">
-        <v>5.409292677362235</v>
+        <v>5.366281081627228</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001219354298801182</v>
+        <v>0.001931136472596059</v>
       </c>
       <c r="J15" t="n">
-        <v>5.409292677362235</v>
+        <v>5.366281081627228</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001882243400496615</v>
+        <v>0.0001761945525341464</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.466164917948674</v>
+        <v>5.423384567352026</v>
       </c>
       <c r="C16" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D16" t="n">
-        <v>5.332909604474696</v>
+        <v>5.349743866450842</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004044232396662124</v>
+        <v>0.00237639981223464</v>
       </c>
       <c r="F16" t="n">
-        <v>5.332909604474696</v>
+        <v>5.349743866450842</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001970181580081759</v>
+        <v>0.0002032089427992788</v>
       </c>
       <c r="H16" t="n">
-        <v>5.466164917948674</v>
+        <v>5.423384567352026</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001716503960286425</v>
+        <v>0.002384848483612152</v>
       </c>
       <c r="J16" t="n">
-        <v>5.466164917948674</v>
+        <v>5.423384567352026</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002098749011494231</v>
+        <v>0.0001929823905791761</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.523037158535113</v>
+        <v>5.480488053076825</v>
       </c>
       <c r="C17" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D17" t="n">
-        <v>5.381386214972322</v>
+        <v>5.398129480937786</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005115601483460965</v>
+        <v>0.003052712927773598</v>
       </c>
       <c r="F17" t="n">
-        <v>5.381386214972322</v>
+        <v>5.398129480937786</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002161102534781917</v>
+        <v>0.0002248850125931094</v>
       </c>
       <c r="H17" t="n">
-        <v>5.523037158535113</v>
+        <v>5.480488053076825</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002396175009774485</v>
+        <v>0.002923392073656432</v>
       </c>
       <c r="J17" t="n">
-        <v>5.523037158535113</v>
+        <v>5.480488053076825</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002396776022127793</v>
+        <v>0.0002160872413809163</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.579909399121552</v>
+        <v>5.537591538801625</v>
       </c>
       <c r="C18" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D18" t="n">
-        <v>5.429862825469948</v>
+        <v>5.446515095424731</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006389948818709159</v>
+        <v>0.003871782500845229</v>
       </c>
       <c r="F18" t="n">
-        <v>5.429862825469948</v>
+        <v>5.446515095424731</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002427740652480787</v>
+        <v>0.0002539999409558878</v>
       </c>
       <c r="H18" t="n">
-        <v>5.579909399121552</v>
+        <v>5.537591538801625</v>
       </c>
       <c r="I18" t="n">
-        <v>0.003301339946567016</v>
+        <v>0.003568231004281846</v>
       </c>
       <c r="J18" t="n">
-        <v>5.579909399121552</v>
+        <v>5.537591538801625</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002820109703222628</v>
+        <v>0.0002496664903576499</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.636781639707991</v>
+        <v>5.594695024526423</v>
       </c>
       <c r="C19" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D19" t="n">
-        <v>5.478339435967575</v>
+        <v>5.494900709911676</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007903910683081735</v>
+        <v>0.004854016728615673</v>
       </c>
       <c r="F19" t="n">
-        <v>5.478339435967575</v>
+        <v>5.494900709911676</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002783830633635464</v>
+        <v>0.0002926223818503555</v>
       </c>
       <c r="H19" t="n">
-        <v>5.636781639707991</v>
+        <v>5.594695024526423</v>
       </c>
       <c r="I19" t="n">
-        <v>0.004493160746903685</v>
+        <v>0.004356547110890006</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636781639707991</v>
+        <v>5.594695024526423</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003381858202040539</v>
+        <v>0.0002946881941409522</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.693653880294429</v>
+        <v>5.651798510251222</v>
       </c>
       <c r="C20" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D20" t="n">
-        <v>5.526816046465201</v>
+        <v>5.543286324398619</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009651888016110296</v>
+        <v>0.00602795734114625</v>
       </c>
       <c r="F20" t="n">
-        <v>5.526816046465201</v>
+        <v>5.543286324398619</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003253343671915687</v>
+        <v>0.0003432427174606808</v>
       </c>
       <c r="H20" t="n">
-        <v>5.693653880294429</v>
+        <v>5.651798510251222</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005999390174918372</v>
+        <v>0.005327832341433671</v>
       </c>
       <c r="J20" t="n">
-        <v>5.693653880294429</v>
+        <v>5.651798510251222</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004162003068032335</v>
+        <v>0.0003567992196674611</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.750526120880868</v>
+        <v>5.708901995976022</v>
       </c>
       <c r="C21" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D21" t="n">
-        <v>5.575292656962827</v>
+        <v>5.591671938885564</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01167285327043202</v>
+        <v>0.00742027772090311</v>
       </c>
       <c r="F21" t="n">
-        <v>5.575292656962827</v>
+        <v>5.591671938885564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0003864823333527578</v>
+        <v>0.0004107577378840258</v>
       </c>
       <c r="H21" t="n">
-        <v>5.750526120880868</v>
+        <v>5.708901995976022</v>
       </c>
       <c r="I21" t="n">
-        <v>0.007877768054869599</v>
+        <v>0.006534446256038526</v>
       </c>
       <c r="J21" t="n">
-        <v>5.750526120880868</v>
+        <v>5.708901995976022</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0005233705718221311</v>
+        <v>0.0004421255080379207</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.807398361467307</v>
+        <v>5.76600548170082</v>
       </c>
       <c r="C22" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D22" t="n">
-        <v>5.623769267460453</v>
+        <v>5.640057553372508</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01396380699653023</v>
+        <v>0.009043298980213259</v>
       </c>
       <c r="F22" t="n">
-        <v>5.623769267460453</v>
+        <v>5.640057553372508</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0004651737715795951</v>
+        <v>0.0004979850153329474</v>
       </c>
       <c r="H22" t="n">
-        <v>5.807398361467307</v>
+        <v>5.76600548170082</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01016799008403651</v>
+        <v>0.008037041117070926</v>
       </c>
       <c r="J22" t="n">
-        <v>5.807398361467307</v>
+        <v>5.76600548170082</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0006643320861471169</v>
+        <v>0.0005572137181222032</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.864270602053745</v>
+        <v>5.82310896742562</v>
       </c>
       <c r="C23" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D23" t="n">
-        <v>5.67224587795808</v>
+        <v>5.688443167859453</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01655641960898251</v>
+        <v>0.01093110205191978</v>
       </c>
       <c r="F23" t="n">
-        <v>5.67224587795808</v>
+        <v>5.688443167859453</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0005672541898318347</v>
+        <v>0.0006086546626758091</v>
       </c>
       <c r="H23" t="n">
-        <v>5.864270602053745</v>
+        <v>5.82310896742562</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01290190332871805</v>
+        <v>0.009901292078560615</v>
       </c>
       <c r="J23" t="n">
-        <v>5.864270602053745</v>
+        <v>5.82310896742562</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0008564066304011222</v>
+        <v>0.0007133620004048711</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.921142842640184</v>
+        <v>5.880212453150419</v>
       </c>
       <c r="C24" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D24" t="n">
-        <v>5.720722488455706</v>
+        <v>5.736828782346397</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01944871358480769</v>
+        <v>0.01308626628003477</v>
       </c>
       <c r="F24" t="n">
-        <v>5.720722488455706</v>
+        <v>5.736828782346397</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006979931327323365</v>
+        <v>0.0007496482786442321</v>
       </c>
       <c r="H24" t="n">
-        <v>5.921142842640184</v>
+        <v>5.880212453150419</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01609840268496644</v>
+        <v>0.01219844803815047</v>
       </c>
       <c r="J24" t="n">
-        <v>5.921142842640184</v>
+        <v>5.880212453150419</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001100328067185544</v>
+        <v>0.0009170768192851749</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.978015083226623</v>
+        <v>5.937315938875217</v>
       </c>
       <c r="C25" t="n">
         <v>0.0002249788283093745</v>
       </c>
       <c r="D25" t="n">
-        <v>5.769199098953332</v>
+        <v>5.785214396833341</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02267111429411092</v>
+        <v>0.01555943031312022</v>
       </c>
       <c r="F25" t="n">
-        <v>5.769199098953332</v>
+        <v>5.785214396833341</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0008660952216165828</v>
+        <v>0.000928136730618101</v>
       </c>
       <c r="H25" t="n">
-        <v>5.978015083226623</v>
+        <v>5.937315938875217</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01975258241878406</v>
+        <v>0.01498808828256114</v>
       </c>
       <c r="J25" t="n">
-        <v>5.978015083226623</v>
+        <v>5.937315938875217</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001418684230944966</v>
+        <v>0.001185001406579152</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.034887323813061</v>
+        <v>5.994419424600016</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000290772077197743</v>
+        <v>0.0002249788283093745</v>
       </c>
       <c r="D26" t="n">
-        <v>5.817675709450959</v>
+        <v>5.833600011320286</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02621336140144969</v>
+        <v>0.01834210688946946</v>
       </c>
       <c r="F26" t="n">
-        <v>5.817675709450959</v>
+        <v>5.833600011320286</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001074198753142994</v>
+        <v>0.001149902528033742</v>
       </c>
       <c r="H26" t="n">
-        <v>6.034887323813061</v>
+        <v>5.994419424600016</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02386234630806911</v>
+        <v>0.01832744554749562</v>
       </c>
       <c r="J26" t="n">
-        <v>6.034887323813061</v>
+        <v>5.994419424600016</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001816467193967703</v>
+        <v>0.001522731464989625</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.0917595643995</v>
+        <v>6.051522910324816</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005676070330181342</v>
+        <v>0.0003548217167579184</v>
       </c>
       <c r="D27" t="n">
-        <v>5.866152319948585</v>
+        <v>5.88198562580723</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03009679394505781</v>
+        <v>0.02149098189867724</v>
       </c>
       <c r="F27" t="n">
-        <v>5.866152319948585</v>
+        <v>5.88198562580723</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001330027834982378</v>
+        <v>0.001426063916255845</v>
       </c>
       <c r="H27" t="n">
-        <v>6.0917595643995</v>
+        <v>6.051522910324816</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02840924266768155</v>
+        <v>0.02226969804321078</v>
       </c>
       <c r="J27" t="n">
-        <v>6.0917595643995</v>
+        <v>6.051522910324816</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00231527760171381</v>
+        <v>0.001950314045239108</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.148631804985939</v>
+        <v>6.108626396049615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001064226560577294</v>
+        <v>0.0006850452255206007</v>
       </c>
       <c r="D28" t="n">
-        <v>5.914628930446211</v>
+        <v>5.930371240294175</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03434160486926528</v>
+        <v>0.02500090672352827</v>
       </c>
       <c r="F28" t="n">
-        <v>5.914628930446211</v>
+        <v>5.930371240294175</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001643953869085595</v>
+        <v>0.001766588185129067</v>
       </c>
       <c r="H28" t="n">
-        <v>6.148631804985939</v>
+        <v>6.108626396049615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03336717960231193</v>
+        <v>0.02684843483478623</v>
       </c>
       <c r="J28" t="n">
-        <v>6.148631804985939</v>
+        <v>6.108626396049615</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002934574599181895</v>
+        <v>0.002487172652439603</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.205504045572378</v>
+        <v>6.165729881774414</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00191790451866647</v>
+        <v>0.001270839603290041</v>
       </c>
       <c r="D29" t="n">
-        <v>5.963105540943838</v>
+        <v>5.978756854781119</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03894112018192764</v>
+        <v>0.02892234968645748</v>
       </c>
       <c r="F29" t="n">
-        <v>5.963105540943838</v>
+        <v>5.978756854781119</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00203309587127789</v>
+        <v>0.002178466521882048</v>
       </c>
       <c r="H29" t="n">
-        <v>6.205504045572378</v>
+        <v>6.165729881774414</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03872256955563229</v>
+        <v>0.0320708728189457</v>
       </c>
       <c r="J29" t="n">
-        <v>6.205504045572378</v>
+        <v>6.165729881774414</v>
       </c>
       <c r="K29" t="n">
-        <v>0.003688006078214176</v>
+        <v>0.003143724468737848</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.262376286158817</v>
+        <v>6.222833367499213</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003324906862775463</v>
+        <v>0.002266868492350976</v>
       </c>
       <c r="D30" t="n">
-        <v>6.011582151441464</v>
+        <v>6.027142469268064</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04391564477966926</v>
+        <v>0.03326260002342049</v>
       </c>
       <c r="F30" t="n">
-        <v>6.011582151441464</v>
+        <v>6.027142469268064</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002509147973453936</v>
+        <v>0.002679381663679254</v>
       </c>
       <c r="H30" t="n">
-        <v>6.262376286158817</v>
+        <v>6.222833367499213</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04447747233915818</v>
+        <v>0.03795820913497687</v>
       </c>
       <c r="J30" t="n">
-        <v>6.262376286158817</v>
+        <v>6.222833367499213</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004619116040337166</v>
+        <v>0.003958090365958354</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.319248526745255</v>
+        <v>6.279936853224012</v>
       </c>
       <c r="C31" t="n">
-        <v>0.005549944107091372</v>
+        <v>0.003891048052390322</v>
       </c>
       <c r="D31" t="n">
-        <v>6.06005876193909</v>
+        <v>6.075528083755009</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04927259184002107</v>
+        <v>0.03807284213888715</v>
       </c>
       <c r="F31" t="n">
-        <v>6.06005876193909</v>
+        <v>6.075528083755009</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00307764406931815</v>
+        <v>0.003276871119969765</v>
       </c>
       <c r="H31" t="n">
-        <v>6.319248526745255</v>
+        <v>6.279936853224012</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05060472123312614</v>
+        <v>0.04452496210871795</v>
       </c>
       <c r="J31" t="n">
-        <v>6.319248526745255</v>
+        <v>6.279936853224012</v>
       </c>
       <c r="K31" t="n">
-        <v>0.005731121457127807</v>
+        <v>0.00493817830255081</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.376120767331694</v>
+        <v>6.337040338948811</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008928981370332887</v>
+        <v>0.006432774194032117</v>
       </c>
       <c r="D32" t="n">
-        <v>6.108535372436716</v>
+        <v>6.123913698241953</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05505858535726479</v>
+        <v>0.04337099067176339</v>
       </c>
       <c r="F32" t="n">
-        <v>6.108535372436716</v>
+        <v>6.123913698241953</v>
       </c>
       <c r="G32" t="n">
-        <v>0.003753205766056664</v>
+        <v>0.003987108625829862</v>
       </c>
       <c r="H32" t="n">
-        <v>6.376120767331694</v>
+        <v>6.337040338948811</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05719094069753392</v>
+        <v>0.05177403808036205</v>
       </c>
       <c r="J32" t="n">
-        <v>6.376120767331694</v>
+        <v>6.337040338948811</v>
       </c>
       <c r="K32" t="n">
-        <v>0.007062332129868069</v>
+        <v>0.006122148726386622</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.432993007918133</v>
+        <v>6.39414382467361</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01386193788688383</v>
+        <v>0.01025326030311796</v>
       </c>
       <c r="D33" t="n">
-        <v>6.157011982934343</v>
+        <v>6.172299312728898</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06126139563560132</v>
+        <v>0.04921890172944242</v>
       </c>
       <c r="F33" t="n">
-        <v>6.157011982934343</v>
+        <v>6.172299312728898</v>
       </c>
       <c r="G33" t="n">
-        <v>0.004545655760249145</v>
+        <v>0.004830477504447026</v>
       </c>
       <c r="H33" t="n">
-        <v>6.432993007918133</v>
+        <v>6.39414382467361</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06427819559020646</v>
+        <v>0.05974465883999394</v>
       </c>
       <c r="J33" t="n">
-        <v>6.432993007918133</v>
+        <v>6.39414382467361</v>
       </c>
       <c r="K33" t="n">
-        <v>0.00863274597190654</v>
+        <v>0.007532519218590084</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.489865248504572</v>
+        <v>6.45124731039841</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02079321553979929</v>
+        <v>0.01579206289221336</v>
       </c>
       <c r="D34" t="n">
-        <v>6.205488593431969</v>
+        <v>6.220684927215841</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06797330885711404</v>
+        <v>0.05564995062945918</v>
       </c>
       <c r="F34" t="n">
-        <v>6.205488593431969</v>
+        <v>6.220684927215841</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005482068145030426</v>
+        <v>0.005810960590163436</v>
       </c>
       <c r="H34" t="n">
-        <v>6.489865248504572</v>
+        <v>6.45124731039841</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07199176314428425</v>
+        <v>0.0684574984910023</v>
       </c>
       <c r="J34" t="n">
-        <v>6.489865248504572</v>
+        <v>6.45124731039841</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01050343743509741</v>
+        <v>0.009200318230866289</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.546737489091011</v>
+        <v>6.508350796123208</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0301805816581554</v>
+        <v>0.02350571803141336</v>
       </c>
       <c r="D35" t="n">
-        <v>6.253965203929595</v>
+        <v>6.269070541702786</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07520529876003695</v>
+        <v>0.06270375441648041</v>
       </c>
       <c r="F35" t="n">
-        <v>6.253965203929595</v>
+        <v>6.269070541702786</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006579134095465271</v>
+        <v>0.00695817087215729</v>
       </c>
       <c r="H35" t="n">
-        <v>6.546737489091011</v>
+        <v>6.508350796123208</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0804407199376444</v>
+        <v>0.07799787968595277</v>
       </c>
       <c r="J35" t="n">
-        <v>6.546737489091011</v>
+        <v>6.508350796123208</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01270760935038149</v>
+        <v>0.01118659218112064</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.60360972967745</v>
+        <v>6.565454281848007</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04245603395269978</v>
+        <v>0.03385002769840569</v>
       </c>
       <c r="D36" t="n">
-        <v>6.302441814427222</v>
+        <v>6.31745615618973</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0830029339575559</v>
+        <v>0.07045734652780593</v>
       </c>
       <c r="F36" t="n">
-        <v>6.302441814427222</v>
+        <v>6.31745615618973</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007855946331710408</v>
+        <v>0.008286566718921229</v>
       </c>
       <c r="H36" t="n">
-        <v>6.60360972967745</v>
+        <v>6.565454281848007</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08978612101339742</v>
+        <v>0.0884079547652681</v>
       </c>
       <c r="J36" t="n">
-        <v>6.60360972967745</v>
+        <v>6.565454281848007</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01527103842099765</v>
+        <v>0.01350098142508655</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.660481970263889</v>
+        <v>6.622557767572806</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05798474100155809</v>
+        <v>0.04724401047466414</v>
       </c>
       <c r="D37" t="n">
-        <v>6.350918424924847</v>
+        <v>6.365841770676675</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09147329820245555</v>
+        <v>0.07892042040424213</v>
       </c>
       <c r="F37" t="n">
-        <v>6.350918424924847</v>
+        <v>6.365841770676675</v>
       </c>
       <c r="G37" t="n">
-        <v>0.009329240536981427</v>
+        <v>0.009816138185236099</v>
       </c>
       <c r="H37" t="n">
-        <v>6.660481970263889</v>
+        <v>6.622557767572806</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1001371901013371</v>
+        <v>0.09974514293659557</v>
       </c>
       <c r="J37" t="n">
-        <v>6.660481970263889</v>
+        <v>6.622557767572806</v>
       </c>
       <c r="K37" t="n">
-        <v>0.01825069241597511</v>
+        <v>0.01621195629228178</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.717354210850328</v>
+        <v>6.679661253297605</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07702877506593032</v>
+        <v>0.06402435289003078</v>
       </c>
       <c r="D38" t="n">
-        <v>6.399395035422474</v>
+        <v>6.41422738516362</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1006330802558221</v>
+        <v>0.08817306371062165</v>
       </c>
       <c r="F38" t="n">
-        <v>6.399395035422474</v>
+        <v>6.41422738516362</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01101238786623361</v>
+        <v>0.01158101760971713</v>
       </c>
       <c r="H38" t="n">
-        <v>6.717354210850328</v>
+        <v>6.679661253297605</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1116209885275133</v>
+        <v>0.1120936931595363</v>
       </c>
       <c r="J38" t="n">
-        <v>6.717354210850328</v>
+        <v>6.679661253297605</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02167319884649987</v>
+        <v>0.01934967244030393</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.774226451436766</v>
+        <v>6.736764739022405</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09972052706359423</v>
+        <v>0.08441159653286576</v>
       </c>
       <c r="D39" t="n">
-        <v>6.447871645920101</v>
+        <v>6.462612999650563</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1105428259515183</v>
+        <v>0.09819271132565995</v>
       </c>
       <c r="F39" t="n">
-        <v>6.447871645920101</v>
+        <v>6.462612999650563</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01293796076543952</v>
+        <v>0.01357144644550131</v>
       </c>
       <c r="H39" t="n">
-        <v>6.774226451436766</v>
+        <v>6.736764739022405</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1243138371370139</v>
+        <v>0.1254567567695376</v>
       </c>
       <c r="J39" t="n">
-        <v>6.774226451436766</v>
+        <v>6.736764739022405</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02559878287310671</v>
+        <v>0.02296005837323528</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.831098692023205</v>
+        <v>6.793868224747204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1260469264093968</v>
+        <v>0.1084872440317038</v>
       </c>
       <c r="D40" t="n">
-        <v>6.496348256417727</v>
+        <v>6.510998614137508</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1212428583259689</v>
+        <v>0.1090113508101296</v>
       </c>
       <c r="F40" t="n">
-        <v>6.496348256417727</v>
+        <v>6.510998614137508</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01510987267836673</v>
+        <v>0.01582243545972085</v>
       </c>
       <c r="H40" t="n">
-        <v>6.831098692023205</v>
+        <v>6.793868224747204</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1382384744025569</v>
+        <v>0.1398145703851981</v>
       </c>
       <c r="J40" t="n">
-        <v>6.831098692023205</v>
+        <v>6.793868224747204</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03005873462396237</v>
+        <v>0.02708073175113588</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.887970932609644</v>
+        <v>6.850971710472002</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1558811998367346</v>
+        <v>0.1361811874652984</v>
       </c>
       <c r="D41" t="n">
-        <v>6.544824866915353</v>
+        <v>6.559384228624452</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1327294978188204</v>
+        <v>0.1205922886439094</v>
       </c>
       <c r="F41" t="n">
-        <v>6.544824866915353</v>
+        <v>6.559384228624452</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01754883910247514</v>
+        <v>0.01833039533168448</v>
       </c>
       <c r="H41" t="n">
-        <v>6.887970932609644</v>
+        <v>6.850971710472002</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1533254259780908</v>
+        <v>0.1551044366067499</v>
       </c>
       <c r="J41" t="n">
-        <v>6.887970932609644</v>
+        <v>6.850971710472002</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03507508963129211</v>
+        <v>0.03174398283418443</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.944843173196082</v>
+        <v>6.908075196196801</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1888461647207187</v>
+        <v>0.1672651984179965</v>
       </c>
       <c r="D42" t="n">
-        <v>6.59330147741298</v>
+        <v>6.607769843111397</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1450325593460494</v>
+        <v>0.1328957771705249</v>
       </c>
       <c r="F42" t="n">
-        <v>6.59330147741298</v>
+        <v>6.607769843111397</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02026580908873107</v>
+        <v>0.02113262192360833</v>
       </c>
       <c r="H42" t="n">
-        <v>6.944843173196082</v>
+        <v>6.908075196196801</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1694592839529249</v>
+        <v>0.1712179550701079</v>
       </c>
       <c r="J42" t="n">
-        <v>6.944843173196082</v>
+        <v>6.908075196196801</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04065836890210591</v>
+        <v>0.03697600767174114</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.001715413782521</v>
+        <v>6.9651786819216</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2244438480015188</v>
+        <v>0.2013472587231873</v>
       </c>
       <c r="D43" t="n">
-        <v>6.641778087910605</v>
+        <v>6.656155457598341</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1580721166974755</v>
+        <v>0.1458415862875653</v>
       </c>
       <c r="F43" t="n">
-        <v>6.641778087910605</v>
+        <v>6.656155457598341</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02327228723594806</v>
+        <v>0.02422305387163725</v>
       </c>
       <c r="H43" t="n">
-        <v>7.001715413782521</v>
+        <v>6.9651786819216</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1864285700575991</v>
+        <v>0.1879860608281699</v>
       </c>
       <c r="J43" t="n">
-        <v>7.001715413782521</v>
+        <v>6.9651786819216</v>
       </c>
       <c r="K43" t="n">
-        <v>0.04684162100800743</v>
+        <v>0.0428075211595155</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.05858765436896</v>
+        <v>7.0222821676464</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2620038968191827</v>
+        <v>0.2378641510770094</v>
       </c>
       <c r="D44" t="n">
-        <v>6.690254698408232</v>
+        <v>6.704541072085286</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1717876133102969</v>
+        <v>0.159339911377916</v>
       </c>
       <c r="F44" t="n">
-        <v>6.690254698408232</v>
+        <v>6.704541072085286</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02657502972251809</v>
+        <v>0.02759395717122382</v>
       </c>
       <c r="H44" t="n">
-        <v>7.05858765436896</v>
+        <v>7.0222821676464</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2040113626619313</v>
+        <v>0.205203944190172</v>
       </c>
       <c r="J44" t="n">
-        <v>7.05858765436896</v>
+        <v>7.0222821676464</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0535815887873004</v>
+        <v>0.04921909245942487</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.115459894955398</v>
+        <v>7.079385653371199</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3006809516524938</v>
+        <v>0.2760749756939095</v>
       </c>
       <c r="D45" t="n">
-        <v>6.738731308905859</v>
+        <v>6.752926686572231</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1860698298537763</v>
+        <v>0.1732577300889087</v>
       </c>
       <c r="F45" t="n">
-        <v>6.738731308905859</v>
+        <v>6.752926686572231</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03015168144035548</v>
+        <v>0.03126012994924227</v>
       </c>
       <c r="H45" t="n">
-        <v>7.115459894955398</v>
+        <v>7.079385653371199</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2218868252498014</v>
+        <v>0.2226611537720826</v>
       </c>
       <c r="J45" t="n">
-        <v>7.115459894955398</v>
+        <v>7.079385653371199</v>
       </c>
       <c r="K45" t="n">
-        <v>0.06082619040664373</v>
+        <v>0.0561773258609855</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.172332135541838</v>
+        <v>7.136489139095998</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3394679604664722</v>
+        <v>0.3150635141408609</v>
       </c>
       <c r="D46" t="n">
-        <v>6.787207919403484</v>
+        <v>6.801312301059175</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2007488134674213</v>
+        <v>0.1874666492486187</v>
       </c>
       <c r="F46" t="n">
-        <v>6.787207919403484</v>
+        <v>6.801312301059175</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03401543388285703</v>
+        <v>0.03518778871882996</v>
       </c>
       <c r="H46" t="n">
-        <v>7.172332135541838</v>
+        <v>7.136489139095998</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2397977698925956</v>
+        <v>0.2401047010525058</v>
       </c>
       <c r="J46" t="n">
-        <v>7.172332135541838</v>
+        <v>7.136489139095998</v>
       </c>
       <c r="K46" t="n">
-        <v>0.06852912784414958</v>
+        <v>0.06363339978201162</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.229204376128276</v>
+        <v>7.193592624820797</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3772336684981686</v>
+        <v>0.3537596506822226</v>
       </c>
       <c r="D47" t="n">
-        <v>6.835684529901111</v>
+        <v>6.84969791554612</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2157067783503125</v>
+        <v>0.2018186188601667</v>
       </c>
       <c r="F47" t="n">
-        <v>6.835684529901111</v>
+        <v>6.84969791554612</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03814001860340374</v>
+        <v>0.03938553293100453</v>
       </c>
       <c r="H47" t="n">
-        <v>7.229204376128276</v>
+        <v>7.193592624820797</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2573741757828181</v>
+        <v>0.2573523342749827</v>
       </c>
       <c r="J47" t="n">
-        <v>7.229204376128276</v>
+        <v>7.193592624820797</v>
       </c>
       <c r="K47" t="n">
-        <v>0.07657319929582423</v>
+        <v>0.07150406922828435</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.286076616714715</v>
+        <v>7.250696110545595</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4127877433515419</v>
+        <v>0.3909875738313365</v>
       </c>
       <c r="D48" t="n">
-        <v>6.884161140398737</v>
+        <v>6.898083530033063</v>
       </c>
       <c r="E48" t="n">
-        <v>0.230728909555892</v>
+        <v>0.2161760662747273</v>
       </c>
       <c r="F48" t="n">
-        <v>6.884161140398737</v>
+        <v>6.898083530033063</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04252495275592035</v>
+        <v>0.04382339153108659</v>
       </c>
       <c r="H48" t="n">
-        <v>7.286076616714715</v>
+        <v>7.250696110545595</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2743428572017814</v>
+        <v>0.2741969351761571</v>
       </c>
       <c r="J48" t="n">
-        <v>7.286076616714715</v>
+        <v>7.250696110545595</v>
       </c>
       <c r="K48" t="n">
-        <v>0.08491387380620487</v>
+        <v>0.07971678212197586</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.342948857301154</v>
+        <v>7.307799596270395</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4449686377146486</v>
+        <v>0.4255415576671308</v>
       </c>
       <c r="D49" t="n">
-        <v>6.932637750896363</v>
+        <v>6.946469144520008</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2455992845879807</v>
+        <v>0.2303940928366858</v>
       </c>
       <c r="F49" t="n">
-        <v>6.932637750896363</v>
+        <v>6.946469144520008</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04714658798026043</v>
+        <v>0.04851242556622689</v>
       </c>
       <c r="H49" t="n">
-        <v>7.342948857301154</v>
+        <v>7.307799596270395</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2904289928450647</v>
+        <v>0.2904482523352491</v>
       </c>
       <c r="J49" t="n">
-        <v>7.342948857301154</v>
+        <v>7.307799596270395</v>
       </c>
       <c r="K49" t="n">
-        <v>0.09337624855430519</v>
+        <v>0.08812312307904904</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.399821097887592</v>
+        <v>7.364903081995194</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4727411361515839</v>
+        <v>0.4562811672223805</v>
       </c>
       <c r="D50" t="n">
-        <v>6.98111436139399</v>
+        <v>6.994854759006953</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2601373193127873</v>
+        <v>0.244350455126022</v>
       </c>
       <c r="F50" t="n">
-        <v>6.98111436139399</v>
+        <v>6.994854759006953</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05202347937800359</v>
+        <v>0.05344663744398329</v>
       </c>
       <c r="H50" t="n">
-        <v>7.399821097887592</v>
+        <v>7.364903081995194</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3053899037682389</v>
+        <v>0.3059521379486815</v>
       </c>
       <c r="J50" t="n">
-        <v>7.399821097887592</v>
+        <v>7.364903081995194</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1018962042839634</v>
+        <v>0.09667092116763368</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.456693338474031</v>
+        <v>7.422006567719993</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4952856948134195</v>
+        <v>0.4822301447702654</v>
       </c>
       <c r="D51" t="n">
-        <v>7.029590971891616</v>
+        <v>7.043240373493896</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2741668874019292</v>
+        <v>0.2579248338346171</v>
       </c>
       <c r="F51" t="n">
-        <v>7.029590971891616</v>
+        <v>7.043240373493896</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05714236330429038</v>
+        <v>0.05862338984749765</v>
       </c>
       <c r="H51" t="n">
-        <v>7.456693338474031</v>
+        <v>7.422006567719993</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3190184262464311</v>
+        <v>0.3205192230414474</v>
       </c>
       <c r="J51" t="n">
-        <v>7.456693338474031</v>
+        <v>7.422006567719993</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1103359068793184</v>
+        <v>0.1052011449576666</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.513565579060471</v>
+        <v>7.479110053444792</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5120621026319447</v>
+        <v>0.5026599831056267</v>
       </c>
       <c r="D52" t="n">
-        <v>7.078067582389242</v>
+        <v>7.091625987980841</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2874576368952153</v>
+        <v>0.2710102955274252</v>
       </c>
       <c r="F52" t="n">
-        <v>7.078067582389242</v>
+        <v>7.091625987980841</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06250530024588753</v>
+        <v>0.06404633779174233</v>
       </c>
       <c r="H52" t="n">
-        <v>7.513565579060471</v>
+        <v>7.479110053444792</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3311334437275593</v>
+        <v>0.3339923713912991</v>
       </c>
       <c r="J52" t="n">
-        <v>7.513565579060471</v>
+        <v>7.479110053444792</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1185970491407431</v>
+        <v>0.1136304753384395</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.570437819646909</v>
+        <v>7.536213539169591</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5228358049592673</v>
+        <v>0.5171417073782747</v>
       </c>
       <c r="D53" t="n">
-        <v>7.126544192886868</v>
+        <v>7.140011602467785</v>
       </c>
       <c r="E53" t="n">
-        <v>0.299874165763522</v>
+        <v>0.2835285705843249</v>
       </c>
       <c r="F53" t="n">
-        <v>7.126544192886868</v>
+        <v>7.140011602467785</v>
       </c>
       <c r="G53" t="n">
-        <v>0.06812173997150499</v>
+        <v>0.06973197754677041</v>
       </c>
       <c r="H53" t="n">
-        <v>7.570437819646909</v>
+        <v>7.536213539169591</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3416062522638897</v>
+        <v>0.34617605581196</v>
       </c>
       <c r="J53" t="n">
-        <v>7.570437819646909</v>
+        <v>7.536213539169591</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1265723863040378</v>
+        <v>0.1218142873360911</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.627310060233348</v>
+        <v>7.59331702489439</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5276647839033169</v>
+        <v>0.5255571259017596</v>
       </c>
       <c r="D54" t="n">
-        <v>7.175020803384495</v>
+        <v>7.18839721695473</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3112985883729725</v>
+        <v>0.2953895436587279</v>
       </c>
       <c r="F54" t="n">
-        <v>7.175020803384495</v>
+        <v>7.18839721695473</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07400639995435782</v>
+        <v>0.07569880658952163</v>
       </c>
       <c r="H54" t="n">
-        <v>7.627310060233348</v>
+        <v>7.59331702489439</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3503406425615065</v>
+        <v>0.3569224923390075</v>
       </c>
       <c r="J54" t="n">
-        <v>7.627310060233348</v>
+        <v>7.59331702489439</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1341412085555398</v>
+        <v>0.1296587170770374</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.684182300819787</v>
+        <v>7.650420510619189</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5268552453840899</v>
+        <v>0.5280714721467059</v>
       </c>
       <c r="D55" t="n">
-        <v>7.223497413882122</v>
+        <v>7.236782831441674</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3215835330274847</v>
+        <v>0.3065131724043417</v>
       </c>
       <c r="F55" t="n">
-        <v>7.223497413882122</v>
+        <v>7.236782831441674</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08019146791360039</v>
+        <v>0.08193463417319863</v>
       </c>
       <c r="H55" t="n">
-        <v>7.684182300819787</v>
+        <v>7.650420510619189</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3573491879836149</v>
+        <v>0.3660965992399749</v>
       </c>
       <c r="J55" t="n">
-        <v>7.684182300819787</v>
+        <v>7.650420510619189</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1413039778282989</v>
+        <v>0.1371143941486214</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.741054541406225</v>
+        <v>7.707523996343989</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5209021235888407</v>
+        <v>0.5250795560294104</v>
       </c>
       <c r="D56" t="n">
-        <v>7.271974024379748</v>
+        <v>7.285168445928619</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3306678307776514</v>
+        <v>0.3168648563647208</v>
       </c>
       <c r="F56" t="n">
-        <v>7.271974024379748</v>
+        <v>7.285168445928619</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08666396160346085</v>
+        <v>0.08846782564360743</v>
       </c>
       <c r="H56" t="n">
-        <v>7.741054541406225</v>
+        <v>7.707523996343989</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3626272163741981</v>
+        <v>0.3735561298331607</v>
       </c>
       <c r="J56" t="n">
-        <v>7.741054541406225</v>
+        <v>7.707523996343989</v>
       </c>
       <c r="K56" t="n">
-        <v>0.148009714974536</v>
+        <v>0.1441052295016853</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.797926781992665</v>
+        <v>7.764627482068788</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5104327758764889</v>
+        <v>0.5171437775140451</v>
       </c>
       <c r="D57" t="n">
-        <v>7.320450634877374</v>
+        <v>7.333554060415564</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3385141244448152</v>
+        <v>0.3263346852079448</v>
       </c>
       <c r="F57" t="n">
-        <v>7.320450634877374</v>
+        <v>7.333554060415564</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09342830267548091</v>
+        <v>0.09530762841111312</v>
       </c>
       <c r="H57" t="n">
-        <v>7.797926781992665</v>
+        <v>7.764627482068788</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3663003279614513</v>
+        <v>0.3792392338692483</v>
       </c>
       <c r="J57" t="n">
-        <v>7.797926781992665</v>
+        <v>7.764627482068788</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1542821704177867</v>
+        <v>0.1506517726811809</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.854799022579103</v>
+        <v>7.821730967793586</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4961680826992702</v>
+        <v>0.5049297281340894</v>
       </c>
       <c r="D58" t="n">
-        <v>7.368927245375</v>
+        <v>7.381939674902508</v>
       </c>
       <c r="E58" t="n">
-        <v>0.345119431272422</v>
+        <v>0.3349321733597133</v>
       </c>
       <c r="F58" t="n">
-        <v>7.368927245375</v>
+        <v>7.381939674902508</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1004943846420879</v>
+        <v>0.1024453754328676</v>
       </c>
       <c r="H58" t="n">
-        <v>7.854799022579103</v>
+        <v>7.821730967793586</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3684558671484681</v>
+        <v>0.3831249234057215</v>
       </c>
       <c r="J58" t="n">
-        <v>7.854799022579103</v>
+        <v>7.821730967793586</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1602055405084365</v>
+        <v>0.1567998597079938</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.911671263165542</v>
+        <v>7.878834453518385</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4789057503284732</v>
+        <v>0.4892005999361773</v>
       </c>
       <c r="D59" t="n">
-        <v>7.417403855872626</v>
+        <v>7.430325289389453</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3505161838128871</v>
+        <v>0.342555390695668</v>
       </c>
       <c r="F59" t="n">
-        <v>7.417403855872626</v>
+        <v>7.430325289389453</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1078582091540182</v>
+        <v>0.1098715966477733</v>
       </c>
       <c r="H59" t="n">
-        <v>7.911671263165542</v>
+        <v>7.878834453518385</v>
       </c>
       <c r="I59" t="n">
-        <v>0.369297064480824</v>
+        <v>0.3852575403476119</v>
       </c>
       <c r="J59" t="n">
-        <v>7.911671263165542</v>
+        <v>7.878834453518385</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1658908143357583</v>
+        <v>0.1626322357540359</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.968543503751981</v>
+        <v>7.935937939243185</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4595194133684739</v>
+        <v>0.4708290425971203</v>
       </c>
       <c r="D60" t="n">
-        <v>7.465880466370253</v>
+        <v>7.478710903876397</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3547663674592069</v>
+        <v>0.3492288016500469</v>
       </c>
       <c r="F60" t="n">
-        <v>7.465880466370253</v>
+        <v>7.478710903876397</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1154841994220447</v>
+        <v>0.1175467186063439</v>
       </c>
       <c r="H60" t="n">
-        <v>7.968543503751981</v>
+        <v>7.935937939243185</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3690088507598526</v>
+        <v>0.3857691901108774</v>
       </c>
       <c r="J60" t="n">
-        <v>7.968543503751981</v>
+        <v>7.935937939243185</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1714664717934901</v>
+        <v>0.1682757619374402</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.025415744338419</v>
+        <v>7.993041424967983</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4389576444453313</v>
+        <v>0.4507355781444946</v>
       </c>
       <c r="D61" t="n">
-        <v>7.51435707686788</v>
+        <v>7.527096518363341</v>
       </c>
       <c r="E61" t="n">
-        <v>0.357936667998512</v>
+        <v>0.354915550623791</v>
       </c>
       <c r="F61" t="n">
-        <v>7.51435707686788</v>
+        <v>7.527096518363341</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1233566221937881</v>
+        <v>0.1254565324788829</v>
       </c>
       <c r="H61" t="n">
-        <v>8.025415744338419</v>
+        <v>7.993041424967983</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3678215859292889</v>
+        <v>0.3848060693542336</v>
       </c>
       <c r="J61" t="n">
-        <v>8.025415744338419</v>
+        <v>7.993041424967983</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1770582398516161</v>
+        <v>0.1738634574772171</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.082287984924857</v>
+        <v>8.050144910692783</v>
       </c>
       <c r="C62" t="n">
-        <v>0.418250116229413</v>
+        <v>0.4299128599096446</v>
       </c>
       <c r="D62" t="n">
-        <v>7.562833687365505</v>
+        <v>7.575482132850285</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3601397849119849</v>
+        <v>0.3596342337870366</v>
       </c>
       <c r="F62" t="n">
-        <v>7.562833687365505</v>
+        <v>7.575482132850285</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1314250151955065</v>
+        <v>0.1335540785232879</v>
       </c>
       <c r="H62" t="n">
-        <v>8.082287984924857</v>
+        <v>8.050144910692783</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3659544672323684</v>
+        <v>0.3826020119862795</v>
       </c>
       <c r="J62" t="n">
-        <v>8.082287984924857</v>
+        <v>8.050144910692783</v>
       </c>
       <c r="K62" t="n">
-        <v>0.182779958872735</v>
+        <v>0.1795241905803369</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.139160225511297</v>
+        <v>8.107248396417582</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3984243264613835</v>
+        <v>0.4093953319955596</v>
       </c>
       <c r="D63" t="n">
-        <v>7.611310297863131</v>
+        <v>7.62386774733723</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3615285764064847</v>
+        <v>0.3634094932212103</v>
       </c>
       <c r="F63" t="n">
-        <v>7.611310297863131</v>
+        <v>7.62386774733723</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1396541322632786</v>
+        <v>0.1418011368495181</v>
       </c>
       <c r="H63" t="n">
-        <v>8.139160225511297</v>
+        <v>8.107248396417582</v>
       </c>
       <c r="I63" t="n">
-        <v>0.363606046604328</v>
+        <v>0.3793842639312637</v>
       </c>
       <c r="J63" t="n">
-        <v>8.139160225511297</v>
+        <v>8.107248396417582</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1886942588076501</v>
+        <v>0.1853474091392566</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.196032466097735</v>
+        <v>8.16435188214238</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3804316439863015</v>
+        <v>0.3901965030507478</v>
       </c>
       <c r="D64" t="n">
-        <v>7.659786908360758</v>
+        <v>7.672253361824175</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3621916935732092</v>
+        <v>0.3662891653284263</v>
       </c>
       <c r="F64" t="n">
-        <v>7.659786908360758</v>
+        <v>7.672253361824175</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1479943956345667</v>
+        <v>0.1501531373476987</v>
       </c>
       <c r="H64" t="n">
-        <v>8.196032466097735</v>
+        <v>8.16435188214238</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3609452261508273</v>
+        <v>0.3753901766538225</v>
       </c>
       <c r="J64" t="n">
-        <v>8.196032466097735</v>
+        <v>8.16435188214238</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1948383746622034</v>
+        <v>0.1913894096877948</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.252904706684175</v>
+        <v>8.221455367867179</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3650537392793016</v>
+        <v>0.3732171695369717</v>
       </c>
       <c r="D65" t="n">
-        <v>7.708263518858384</v>
+        <v>7.720638976311118</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3622626114553719</v>
+        <v>0.3683086416649148</v>
       </c>
       <c r="F65" t="n">
-        <v>7.708263518858384</v>
+        <v>7.720638976311118</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1564004672397798</v>
+        <v>0.1585689517683116</v>
       </c>
       <c r="H65" t="n">
-        <v>8.252904706684175</v>
+        <v>8.221455367867179</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3580868189598081</v>
+        <v>0.3708667773661037</v>
       </c>
       <c r="J65" t="n">
-        <v>8.252904706684175</v>
+        <v>8.221455367867179</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2011610202757933</v>
+        <v>0.1976417844781636</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.309776947270613</v>
+        <v>8.278558853591978</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3527982112731523</v>
+        <v>0.3591385688249911</v>
       </c>
       <c r="D66" t="n">
-        <v>7.756740129356011</v>
+        <v>7.769024590798063</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3618513129895072</v>
+        <v>0.369581981440548</v>
       </c>
       <c r="F66" t="n">
-        <v>7.756740129356011</v>
+        <v>7.769024590798063</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1648307022603145</v>
+        <v>0.1669574755102088</v>
       </c>
       <c r="H66" t="n">
-        <v>8.309776947270613</v>
+        <v>8.278558853591978</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3551573740265306</v>
+        <v>0.3660185490270902</v>
       </c>
       <c r="J66" t="n">
-        <v>8.309776947270613</v>
+        <v>8.278558853591978</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2076168186275549</v>
+        <v>0.2040629593798892</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.366649187857051</v>
+        <v>8.335662339316778</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3438120646671726</v>
+        <v>0.3483211147307145</v>
       </c>
       <c r="D67" t="n">
-        <v>7.805216739853637</v>
+        <v>7.817410205285007</v>
       </c>
       <c r="E67" t="n">
-        <v>0.361043463446883</v>
+        <v>0.3701218666992446</v>
       </c>
       <c r="F67" t="n">
-        <v>7.805216739853637</v>
+        <v>7.817410205285007</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1732154891865895</v>
+        <v>0.1752927735008278</v>
       </c>
       <c r="H67" t="n">
-        <v>8.366649187857051</v>
+        <v>8.335662339316778</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3522061892985497</v>
+        <v>0.3609879097219518</v>
       </c>
       <c r="J67" t="n">
-        <v>8.366649187857051</v>
+        <v>8.335662339316778</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2141214112820254</v>
+        <v>0.2105732525718461</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.423521428443491</v>
+        <v>8.392765825041577</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3378334851534084</v>
+        <v>0.3407309672555998</v>
       </c>
       <c r="D68" t="n">
-        <v>7.853693350351262</v>
+        <v>7.865795819771952</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3599359147396985</v>
+        <v>0.3700692611017973</v>
       </c>
       <c r="F68" t="n">
-        <v>7.853693350351262</v>
+        <v>7.865795819771952</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1814827213083217</v>
+        <v>0.1835287801719442</v>
       </c>
       <c r="H68" t="n">
-        <v>8.423521428443491</v>
+        <v>8.392765825041577</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3492183938650316</v>
+        <v>0.35588392622638</v>
       </c>
       <c r="J68" t="n">
-        <v>8.423521428443491</v>
+        <v>8.392765825041577</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2205966368869949</v>
+        <v>0.2171066013039688</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.48039366902993</v>
+        <v>8.449869310766376</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3341975382586013</v>
+        <v>0.3359137720808608</v>
       </c>
       <c r="D69" t="n">
-        <v>7.902169960848889</v>
+        <v>7.914181434258897</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3585611112598678</v>
+        <v>0.3694470054852006</v>
       </c>
       <c r="F69" t="n">
-        <v>7.902169960848889</v>
+        <v>7.914181434258897</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1896236206279448</v>
+        <v>0.1916127588837639</v>
       </c>
       <c r="H69" t="n">
-        <v>8.48039366902993</v>
+        <v>8.449869310766376</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3461669711371037</v>
+        <v>0.3507544698328462</v>
       </c>
       <c r="J69" t="n">
-        <v>8.48039366902993</v>
+        <v>8.449869310766376</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2269652443087987</v>
+        <v>0.2235622353806481</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.537265909616369</v>
+        <v>8.506972796491175</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3319036878215249</v>
+        <v>0.3330285156574793</v>
       </c>
       <c r="D70" t="n">
-        <v>7.950646571346516</v>
+        <v>7.962567048745841</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3569990503864029</v>
+        <v>0.3683789739276918</v>
       </c>
       <c r="F70" t="n">
-        <v>7.950646571346516</v>
+        <v>7.962567048745841</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1975605134083195</v>
+        <v>0.1994858237876064</v>
       </c>
       <c r="H70" t="n">
-        <v>8.537265909616369</v>
+        <v>8.506972796491175</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3429846998834886</v>
+        <v>0.345605572220432</v>
       </c>
       <c r="J70" t="n">
-        <v>8.537265909616369</v>
+        <v>8.506972796491175</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2331650071166137</v>
+        <v>0.2298848422196176</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.594138150202808</v>
+        <v>8.564076282215975</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3297427430081502</v>
+        <v>0.3309452044364112</v>
       </c>
       <c r="D71" t="n">
-        <v>7.999123181844142</v>
+        <v>8.010952663232786</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3552448263342401</v>
+        <v>0.3668821977986439</v>
       </c>
       <c r="F71" t="n">
-        <v>7.999123181844142</v>
+        <v>8.010952663232786</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2052649536440576</v>
+        <v>0.2070947596968603</v>
       </c>
       <c r="H71" t="n">
-        <v>8.594138150202808</v>
+        <v>8.564076282215975</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3395231265647738</v>
+        <v>0.3403809172267885</v>
       </c>
       <c r="J71" t="n">
-        <v>8.594138150202808</v>
+        <v>8.564076282215975</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2391528355234421</v>
+        <v>0.2360201982479262</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.651010390789246</v>
+        <v>8.621179767940774</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3264685735464511</v>
+        <v>0.3283983376174236</v>
       </c>
       <c r="D72" t="n">
-        <v>8.047599792341767</v>
+        <v>8.05933827771973</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3533361189102207</v>
+        <v>0.3650413601954022</v>
       </c>
       <c r="F72" t="n">
-        <v>8.047599792341767</v>
+        <v>8.05933827771973</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2126783344716157</v>
+        <v>0.2144360278615931</v>
       </c>
       <c r="H72" t="n">
-        <v>8.651010390789246</v>
+        <v>8.621179767940774</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3356633856810294</v>
+        <v>0.3350250512428383</v>
       </c>
       <c r="J72" t="n">
-        <v>8.651010390789246</v>
+        <v>8.621179767940774</v>
       </c>
       <c r="K72" t="n">
-        <v>0.24488193999359</v>
+        <v>0.241913024673318</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8.707882631375686</v>
+        <v>8.678283253665573</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3209875739632819</v>
+        <v>0.3241750060704784</v>
       </c>
       <c r="D73" t="n">
-        <v>8.096076402839394</v>
+        <v>8.107723892206675</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3512457044269277</v>
+        <v>0.3629041706757408</v>
       </c>
       <c r="F73" t="n">
-        <v>8.096076402839394</v>
+        <v>8.107723892206675</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2197964634449042</v>
+        <v>0.2214634962546715</v>
       </c>
       <c r="H73" t="n">
-        <v>8.707882631375686</v>
+        <v>8.678283253665573</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3312638586237288</v>
+        <v>0.3294369723395062</v>
       </c>
       <c r="J73" t="n">
-        <v>8.707882631375686</v>
+        <v>8.678283253665573</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2502733258506788</v>
+        <v>0.247517451575388</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8.764754871962124</v>
+        <v>8.735386739390371</v>
       </c>
       <c r="C74" t="n">
-        <v>0.312530022458697</v>
+        <v>0.3173047506689195</v>
       </c>
       <c r="D74" t="n">
-        <v>8.144553013337021</v>
+        <v>8.156109506693619</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3489878379418349</v>
+        <v>0.3604709929900416</v>
       </c>
       <c r="F74" t="n">
-        <v>8.144553013337021</v>
+        <v>8.156109506693619</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2266056519469539</v>
+        <v>0.2281873103803669</v>
       </c>
       <c r="H74" t="n">
-        <v>8.764754871962124</v>
+        <v>8.735386739390371</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3261788161909471</v>
+        <v>0.3235050464928674</v>
       </c>
       <c r="J74" t="n">
-        <v>8.764754871962124</v>
+        <v>8.735386739390371</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2552514813357123</v>
+        <v>0.2527378475770942</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8.821627112548562</v>
+        <v>8.79249022511517</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3007664729667294</v>
+        <v>0.3072124067679832</v>
       </c>
       <c r="D75" t="n">
-        <v>8.193029623834647</v>
+        <v>8.204495121180564</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3465360220258297</v>
+        <v>0.3578141532842368</v>
       </c>
       <c r="F75" t="n">
-        <v>8.193029623834647</v>
+        <v>8.204495121180564</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2331071261832734</v>
+        <v>0.2345902320630478</v>
       </c>
       <c r="H75" t="n">
-        <v>8.821627112548562</v>
+        <v>8.79249022511517</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3202882459737863</v>
+        <v>0.3171201955906368</v>
       </c>
       <c r="J75" t="n">
-        <v>8.821627112548562</v>
+        <v>8.79249022511517</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2597387224289756</v>
+        <v>0.257510451142999</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8.878499353135002</v>
+        <v>8.849593710839969</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2858419046704758</v>
+        <v>0.2937991453037191</v>
       </c>
       <c r="D76" t="n">
-        <v>8.241506234332274</v>
+        <v>8.252880735667507</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3438435746367883</v>
+        <v>0.3548826562669528</v>
       </c>
       <c r="F76" t="n">
-        <v>8.241506234332274</v>
+        <v>8.252880735667507</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2393051691123289</v>
+        <v>0.2407213086991337</v>
       </c>
       <c r="H76" t="n">
-        <v>8.878499353135002</v>
+        <v>8.849593710839969</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3135274129805329</v>
+        <v>0.3101760167435325</v>
       </c>
       <c r="J76" t="n">
-        <v>8.878499353135002</v>
+        <v>8.849593710839969</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2636285464284978</v>
+        <v>0.2617373133140991</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.93537159372144</v>
+        <v>8.906697196564767</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2683195532216366</v>
+        <v>0.2774320696716636</v>
       </c>
       <c r="D77" t="n">
-        <v>8.2899828448299</v>
+        <v>8.301266350154453</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3408791322858211</v>
+        <v>0.3517186997130977</v>
       </c>
       <c r="F77" t="n">
-        <v>8.2899828448299</v>
+        <v>8.301266350154453</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2452585330820784</v>
+        <v>0.2466041711491257</v>
       </c>
       <c r="H77" t="n">
-        <v>8.93537159372144</v>
+        <v>8.906697196564767</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3058343421783609</v>
+        <v>0.3025721952107818</v>
       </c>
       <c r="J77" t="n">
-        <v>8.93537159372144</v>
+        <v>8.906697196564767</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2668015365629935</v>
+        <v>0.265295444144004</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8.992243834307878</v>
+        <v>8.963800682289566</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2490497865982538</v>
+        <v>0.258845743419079</v>
       </c>
       <c r="D78" t="n">
-        <v>8.338459455327527</v>
+        <v>8.349651964641396</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3375937647025918</v>
+        <v>0.348260746245962</v>
       </c>
       <c r="F78" t="n">
-        <v>8.338459455327527</v>
+        <v>8.349651964641396</v>
       </c>
       <c r="G78" t="n">
-        <v>0.250981686325896</v>
+        <v>0.2522802351253994</v>
       </c>
       <c r="H78" t="n">
-        <v>8.992243834307878</v>
+        <v>8.963800682289566</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2972408351068113</v>
+        <v>0.2942543272615836</v>
       </c>
       <c r="J78" t="n">
-        <v>8.992243834307878</v>
+        <v>8.963800682289566</v>
       </c>
       <c r="K78" t="n">
-        <v>0.269172806365324</v>
+        <v>0.2680926030896054</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.049116074894318</v>
+        <v>9.020904168014367</v>
       </c>
       <c r="C79" t="n">
-        <v>0.228998996394647</v>
+        <v>0.2389825140452168</v>
       </c>
       <c r="D79" t="n">
-        <v>8.386936065825152</v>
+        <v>8.39803757912834</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3339216543440094</v>
+        <v>0.3445147914740172</v>
       </c>
       <c r="F79" t="n">
-        <v>8.386936065825152</v>
+        <v>8.39803757912834</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2565486551400578</v>
+        <v>0.2578071809089579</v>
       </c>
       <c r="H79" t="n">
-        <v>9.049116074894318</v>
+        <v>9.020904168014367</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2878157219509878</v>
+        <v>0.285195690043374</v>
       </c>
       <c r="J79" t="n">
-        <v>9.049116074894318</v>
+        <v>9.020904168014367</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2706531971407549</v>
+        <v>0.2700320173360479</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.105988315480756</v>
+        <v>9.078007653739165</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2090819735342659</v>
+        <v>0.2188138796108936</v>
       </c>
       <c r="D80" t="n">
-        <v>8.435412676322779</v>
+        <v>8.446423193615285</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3298250998253323</v>
+        <v>0.3404015057270914</v>
       </c>
       <c r="F80" t="n">
-        <v>8.435412676322779</v>
+        <v>8.446423193615285</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2619886458034622</v>
+        <v>0.2632121807755548</v>
       </c>
       <c r="H80" t="n">
-        <v>9.105988315480756</v>
+        <v>9.078007653739165</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2776147684874591</v>
+        <v>0.2754001381179731</v>
       </c>
       <c r="J80" t="n">
-        <v>9.105988315480756</v>
+        <v>9.078007653739165</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2712321220448875</v>
+        <v>0.2710505240949468</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.162860556067194</v>
+        <v>9.135111139463964</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1900369710227208</v>
+        <v>0.199186637838776</v>
       </c>
       <c r="D81" t="n">
-        <v>8.483889286820405</v>
+        <v>8.494808808102229</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3252330172389394</v>
+        <v>0.3359087653307882</v>
       </c>
       <c r="F81" t="n">
-        <v>8.483889286820405</v>
+        <v>8.494808808102229</v>
       </c>
       <c r="G81" t="n">
-        <v>0.2673435243523422</v>
+        <v>0.2685457807779886</v>
       </c>
       <c r="H81" t="n">
-        <v>9.162860556067194</v>
+        <v>9.135111139463964</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2667916560893598</v>
+        <v>0.2649157455418341</v>
       </c>
       <c r="J81" t="n">
-        <v>9.162860556067194</v>
+        <v>9.135111139463964</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2709062185313727</v>
+        <v>0.2711667595197057</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.219732796653634</v>
+        <v>9.192214625188765</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1723776160041888</v>
+        <v>0.1807250810344146</v>
       </c>
       <c r="D82" t="n">
-        <v>8.532365897318032</v>
+        <v>8.543194422589174</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3200944644446804</v>
+        <v>0.3309673615599602</v>
       </c>
       <c r="F82" t="n">
-        <v>8.532365897318032</v>
+        <v>8.543194422589174</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2726387668102086</v>
+        <v>0.2738035286425974</v>
       </c>
       <c r="H82" t="n">
-        <v>9.219732796653634</v>
+        <v>9.192214625188765</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2554731724977224</v>
+        <v>0.2538416470521981</v>
       </c>
       <c r="J82" t="n">
-        <v>9.219732796653634</v>
+        <v>9.192214625188765</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2697631795198706</v>
+        <v>0.2704251591933918</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.276605037240072</v>
+        <v>9.249318110913563</v>
       </c>
       <c r="C83" t="n">
-        <v>0.156336523624197</v>
+        <v>0.163816304352645</v>
       </c>
       <c r="D83" t="n">
-        <v>8.580842507815657</v>
+        <v>8.591580037076119</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3143680036218733</v>
+        <v>0.3255331079263637</v>
       </c>
       <c r="F83" t="n">
-        <v>8.580842507815657</v>
+        <v>8.591580037076119</v>
       </c>
       <c r="G83" t="n">
-        <v>0.277863748007244</v>
+        <v>0.279013266128954</v>
       </c>
       <c r="H83" t="n">
-        <v>9.276605037240072</v>
+        <v>9.249318110913563</v>
       </c>
       <c r="I83" t="n">
-        <v>0.243795145451301</v>
+        <v>0.2423087126230567</v>
       </c>
       <c r="J83" t="n">
-        <v>9.276605037240072</v>
+        <v>9.249318110913563</v>
       </c>
       <c r="K83" t="n">
-        <v>0.26788941490545</v>
+        <v>0.2688672057078837</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.33347727782651</v>
+        <v>9.306421596638362</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1419609597694647</v>
+        <v>0.1485867458482956</v>
       </c>
       <c r="D84" t="n">
-        <v>8.629319118313283</v>
+        <v>8.639965651563063</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3080238168964089</v>
+        <v>0.3195743608484836</v>
       </c>
       <c r="F84" t="n">
-        <v>8.629319118313283</v>
+        <v>8.639965651563063</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2830147571923983</v>
+        <v>0.2841386357562519</v>
       </c>
       <c r="H84" t="n">
-        <v>9.33347727782651</v>
+        <v>9.306421596638362</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2319188273280005</v>
+        <v>0.2304615547291215</v>
       </c>
       <c r="J84" t="n">
-        <v>9.33347727782651</v>
+        <v>9.306421596638362</v>
       </c>
       <c r="K84" t="n">
-        <v>0.265447460225245</v>
+        <v>0.2666767543969625</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.39034951841295</v>
+        <v>9.363525082363161</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1291681950124115</v>
+        <v>0.1350054072426261</v>
       </c>
       <c r="D85" t="n">
-        <v>8.67779572881091</v>
+        <v>8.688351266050008</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3010206009561329</v>
+        <v>0.3130335750977816</v>
       </c>
       <c r="F85" t="n">
-        <v>8.67779572881091</v>
+        <v>8.688351266050008</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2880511373594759</v>
+        <v>0.2891317830678047</v>
       </c>
       <c r="H85" t="n">
-        <v>9.39034951841295</v>
+        <v>9.363525082363161</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2199323428244503</v>
+        <v>0.2184717514051961</v>
       </c>
       <c r="J85" t="n">
-        <v>9.39034951841295</v>
+        <v>9.363525082363161</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2625704890954529</v>
+        <v>0.2639732166929856</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.44722175899939</v>
+        <v>9.42062856808796</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1178098529524168</v>
+        <v>0.1229458664751057</v>
       </c>
       <c r="D86" t="n">
-        <v>8.726272339308537</v>
+        <v>8.736736880536952</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2933785602225398</v>
+        <v>0.3059294914018995</v>
       </c>
       <c r="F86" t="n">
-        <v>8.726272339308537</v>
+        <v>8.736736880536952</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2929021944778714</v>
+        <v>0.2939194558656958</v>
       </c>
       <c r="H86" t="n">
-        <v>9.44722175899939</v>
+        <v>9.42062856808796</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2079732760121254</v>
+        <v>0.2064734421423541</v>
       </c>
       <c r="J86" t="n">
-        <v>9.44722175899939</v>
+        <v>9.42062856808796</v>
       </c>
       <c r="K86" t="n">
-        <v>0.259415125696793</v>
+        <v>0.2609243693057002</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.504093999585827</v>
+        <v>9.477732053812758</v>
       </c>
       <c r="C87" t="n">
-        <v>0.107722097361916</v>
+        <v>0.1122441715318175</v>
       </c>
       <c r="D87" t="n">
-        <v>8.774748949806163</v>
+        <v>8.785122495023895</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2851157020307211</v>
+        <v>0.2982121786989719</v>
       </c>
       <c r="F87" t="n">
-        <v>8.774748949806163</v>
+        <v>8.785122495023895</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2974862226402525</v>
+        <v>0.2984286749927065</v>
       </c>
       <c r="H87" t="n">
-        <v>9.504093999585827</v>
+        <v>9.477732053812758</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1961214221625792</v>
+        <v>0.1945980098952399</v>
       </c>
       <c r="J87" t="n">
-        <v>9.504093999585827</v>
+        <v>9.477732053812758</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2561225547505748</v>
+        <v>0.2576560444671367</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.560966240172267</v>
+        <v>9.534835539537557</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09875742455384769</v>
+        <v>0.1027402964784827</v>
       </c>
       <c r="D88" t="n">
-        <v>8.82322556030379</v>
+        <v>8.833508109510841</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2762570912105658</v>
+        <v>0.2899547053446099</v>
       </c>
       <c r="F88" t="n">
-        <v>8.82322556030379</v>
+        <v>8.833508109510841</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3017303958209153</v>
+        <v>0.3025755348768045</v>
       </c>
       <c r="H88" t="n">
-        <v>9.560966240172267</v>
+        <v>9.534835539537557</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1844486783820982</v>
+        <v>0.1829396451879952</v>
       </c>
       <c r="J88" t="n">
-        <v>9.560966240172267</v>
+        <v>9.534835539537557</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2527739295773068</v>
+        <v>0.2543069537992741</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.617838480758707</v>
+        <v>9.591939025262356</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0907991431454281</v>
+        <v>0.0943008401926263</v>
       </c>
       <c r="D89" t="n">
-        <v>8.871702170801417</v>
+        <v>8.881893723997784</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2668674314019643</v>
+        <v>0.2811442690350183</v>
       </c>
       <c r="F89" t="n">
-        <v>8.871702170801417</v>
+        <v>8.881893723997784</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3055384196186309</v>
+        <v>0.3062822715403091</v>
       </c>
       <c r="H89" t="n">
-        <v>9.617838480758707</v>
+        <v>9.591939025262356</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1730350105269928</v>
+        <v>0.1715465358519531</v>
       </c>
       <c r="J89" t="n">
-        <v>9.617838480758707</v>
+        <v>9.591939025262356</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2494471628484476</v>
+        <v>0.2509587556469246</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.674710721345145</v>
+        <v>9.649042510987156</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08376147095775954</v>
+        <v>0.0868254765316952</v>
       </c>
       <c r="D90" t="n">
-        <v>8.920178781299041</v>
+        <v>8.930279338484731</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2570368462447462</v>
+        <v>0.2718932029629892</v>
       </c>
       <c r="F90" t="n">
-        <v>8.920178781299041</v>
+        <v>8.930279338484731</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3088471249902497</v>
+        <v>0.3094551839052316</v>
       </c>
       <c r="H90" t="n">
-        <v>9.674710721345145</v>
+        <v>9.649042510987156</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1619259962784802</v>
+        <v>0.16045828515033</v>
       </c>
       <c r="J90" t="n">
-        <v>9.674710721345145</v>
+        <v>9.649042510987156</v>
       </c>
       <c r="K90" t="n">
-        <v>0.246152882819646</v>
+        <v>0.2476259658161737</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.731582961931583</v>
+        <v>9.706145996711955</v>
       </c>
       <c r="C91" t="n">
-        <v>0.07757837599399779</v>
+        <v>0.08024035249684379</v>
       </c>
       <c r="D91" t="n">
-        <v>8.968655391796668</v>
+        <v>8.978664952971673</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2468706061708589</v>
+        <v>0.2622420855396272</v>
       </c>
       <c r="F91" t="n">
-        <v>8.968655391796668</v>
+        <v>8.978664952971673</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3115681790133238</v>
+        <v>0.312045419096511</v>
       </c>
       <c r="H91" t="n">
-        <v>9.731582961931583</v>
+        <v>9.706145996711955</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1511870838240647</v>
+        <v>0.1496645633425692</v>
       </c>
       <c r="J91" t="n">
-        <v>9.731582961931583</v>
+        <v>9.706145996711955</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2428794314143438</v>
+        <v>0.2443441144797872</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.788455202518023</v>
+        <v>9.763249482436754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07218491212021955</v>
+        <v>0.07448186812156177</v>
       </c>
       <c r="D92" t="n">
-        <v>9.017132002294295</v>
+        <v>9.02705056745862</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2364825225093548</v>
+        <v>0.2523159956173038</v>
       </c>
       <c r="F92" t="n">
-        <v>9.017132002294295</v>
+        <v>9.02705056745862</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3136483683921389</v>
+        <v>0.3139825419727408</v>
       </c>
       <c r="H92" t="n">
-        <v>9.788455202518023</v>
+        <v>9.763249482436754</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1408666044934616</v>
+        <v>0.1391799487676956</v>
       </c>
       <c r="J92" t="n">
-        <v>9.788455202518023</v>
+        <v>9.763249482436754</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2396076907172106</v>
+        <v>0.2410594926882536</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.845327443104461</v>
+        <v>9.820352968161554</v>
       </c>
       <c r="C93" t="n">
-        <v>0.06749655709169949</v>
+        <v>0.06947560522009015</v>
       </c>
       <c r="D93" t="n">
-        <v>9.06560861279192</v>
+        <v>9.075436181945562</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2259975621009926</v>
+        <v>0.2422193177931997</v>
       </c>
       <c r="F93" t="n">
-        <v>9.06560861279192</v>
+        <v>9.075436181945562</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3150599434770286</v>
+        <v>0.3152640513844731</v>
       </c>
       <c r="H93" t="n">
-        <v>9.845327443104461</v>
+        <v>9.820352968161554</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1310223436397794</v>
+        <v>0.1289917797935875</v>
       </c>
       <c r="J93" t="n">
-        <v>9.845327443104461</v>
+        <v>9.820352968161554</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2363048602119219</v>
+        <v>0.2377647564372778</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.902199683690899</v>
+        <v>9.877456453886353</v>
       </c>
       <c r="C94" t="n">
-        <v>0.06339388442311251</v>
+        <v>0.06511726831826072</v>
       </c>
       <c r="D94" t="n">
-        <v>9.114085223289546</v>
+        <v>9.123821796432507</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2155502246554208</v>
+        <v>0.2320626947071148</v>
       </c>
       <c r="F94" t="n">
-        <v>9.114085223289546</v>
+        <v>9.123821796432507</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3157867548583258</v>
+        <v>0.3158593597713579</v>
       </c>
       <c r="H94" t="n">
-        <v>9.902199683690899</v>
+        <v>9.877456453886353</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1216800117663289</v>
+        <v>0.1191091986991073</v>
       </c>
       <c r="J94" t="n">
-        <v>9.902199683690899</v>
+        <v>9.877456453886353</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2329449951863959</v>
+        <v>0.2344181179992962</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.959071924277339</v>
+        <v>9.934559939611152</v>
       </c>
       <c r="C95" t="n">
-        <v>0.05971987145086104</v>
+        <v>0.06126355025665716</v>
       </c>
       <c r="D95" t="n">
-        <v>9.162561833787173</v>
+        <v>9.172207410919452</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2052559841977039</v>
+        <v>0.2219603664633142</v>
       </c>
       <c r="F95" t="n">
-        <v>9.162561833787173</v>
+        <v>9.172207410919452</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3158509478176057</v>
+        <v>0.31579323793389</v>
       </c>
       <c r="H95" t="n">
-        <v>9.959071924277339</v>
+        <v>9.934559939611152</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1128840568545547</v>
+        <v>0.1095786587565829</v>
       </c>
       <c r="J95" t="n">
-        <v>9.959071924277339</v>
+        <v>9.934559939611152</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2295345451556477</v>
+        <v>0.231012693385663</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10.01594416486378</v>
+        <v>9.99166342533595</v>
       </c>
       <c r="C96" t="n">
-        <v>0.05629400406181211</v>
+        <v>0.0577390211767463</v>
       </c>
       <c r="D96" t="n">
-        <v>9.211038444284799</v>
+        <v>9.220593025406396</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1952272911178189</v>
+        <v>0.2120255794544813</v>
       </c>
       <c r="F96" t="n">
-        <v>9.211038444284799</v>
+        <v>9.220593025406396</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3152625916686245</v>
+        <v>0.3150771846639103</v>
       </c>
       <c r="H96" t="n">
-        <v>10.01594416486378</v>
+        <v>9.99166342533595</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1046304734246029</v>
+        <v>0.1004112510657452</v>
       </c>
       <c r="J96" t="n">
-        <v>10.01594416486378</v>
+        <v>9.99166342533595</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2260824862523927</v>
+        <v>0.2275584814384572</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10.07281640545022</v>
+        <v>10.04876691106075</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0529415620727965</v>
+        <v>0.05436011443501602</v>
       </c>
       <c r="D97" t="n">
-        <v>9.259515054782426</v>
+        <v>9.268978639893341</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1855476889652012</v>
+        <v>0.2023273799561646</v>
       </c>
       <c r="F97" t="n">
-        <v>9.259515054782426</v>
+        <v>9.268978639893341</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3140688315770543</v>
+        <v>0.3137702983177896</v>
       </c>
       <c r="H97" t="n">
-        <v>10.07281640545022</v>
+        <v>10.04876691106075</v>
       </c>
       <c r="I97" t="n">
-        <v>0.09690081919647602</v>
+        <v>0.091657360594529</v>
       </c>
       <c r="J97" t="n">
-        <v>10.07281640545022</v>
+        <v>10.04876691106075</v>
       </c>
       <c r="K97" t="n">
-        <v>0.2226343413847932</v>
+        <v>0.2240882712891952</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10.12968864603666</v>
+        <v>10.10587039678555</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04953023738354897</v>
+        <v>0.0509706705148156</v>
       </c>
       <c r="D98" t="n">
-        <v>9.307991665280053</v>
+        <v>9.317364254380285</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1763074134385029</v>
+        <v>0.1929401697065606</v>
       </c>
       <c r="F98" t="n">
-        <v>9.307991665280053</v>
+        <v>9.317364254380285</v>
       </c>
       <c r="G98" t="n">
-        <v>0.3123381660634116</v>
+        <v>0.3119455790494532</v>
       </c>
       <c r="H98" t="n">
-        <v>10.12968864603666</v>
+        <v>10.10587039678555</v>
       </c>
       <c r="I98" t="n">
-        <v>0.08967485253602109</v>
+        <v>0.08336449976393816</v>
       </c>
       <c r="J98" t="n">
-        <v>10.12968864603666</v>
+        <v>10.10587039678555</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2192305800513462</v>
+        <v>0.2206465178541805</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10.18656088662309</v>
+        <v>10.16297388251035</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04600233048144479</v>
+        <v>0.04747813968361675</v>
       </c>
       <c r="D99" t="n">
-        <v>9.356468275777679</v>
+        <v>9.36574986886723</v>
       </c>
       <c r="E99" t="n">
-        <v>0.167516687938477</v>
+        <v>0.1839105630636102</v>
       </c>
       <c r="F99" t="n">
-        <v>9.356468275777679</v>
+        <v>9.36574986886723</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3101219893184511</v>
+        <v>0.3096494652703544</v>
       </c>
       <c r="H99" t="n">
-        <v>10.18656088662309</v>
+        <v>10.16297388251035</v>
       </c>
       <c r="I99" t="n">
-        <v>0.08288736635887502</v>
+        <v>0.07556284916555786</v>
       </c>
       <c r="J99" t="n">
-        <v>10.18656088662309</v>
+        <v>10.16297388251035</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2159196401185019</v>
+        <v>0.2172800956172346</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10.24343312720953</v>
+        <v>10.22007736823515</v>
       </c>
       <c r="C100" t="n">
-        <v>0.04239109886838088</v>
+        <v>0.04387797621388208</v>
       </c>
       <c r="D100" t="n">
-        <v>9.404944886275304</v>
+        <v>9.414135483354173</v>
       </c>
       <c r="E100" t="n">
-        <v>0.159216530081756</v>
+        <v>0.1752270279305793</v>
       </c>
       <c r="F100" t="n">
-        <v>9.404944886275304</v>
+        <v>9.414135483354173</v>
       </c>
       <c r="G100" t="n">
-        <v>0.307504094431958</v>
+        <v>0.3069692993599606</v>
       </c>
       <c r="H100" t="n">
-        <v>10.24343312720953</v>
+        <v>10.22007736823515</v>
       </c>
       <c r="I100" t="n">
-        <v>0.07648327125673055</v>
+        <v>0.0682824087784198</v>
       </c>
       <c r="J100" t="n">
-        <v>10.24343312720953</v>
+        <v>10.22007736823515</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2127410441664404</v>
+        <v>0.2140296348749085</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10.30030536779597</v>
+        <v>10.27718085395995</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0388144472482767</v>
+        <v>0.04025687639688145</v>
       </c>
       <c r="D101" t="n">
-        <v>9.453421496772931</v>
+        <v>9.462521097841119</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1513824716897192</v>
+        <v>0.1669174082978648</v>
       </c>
       <c r="F101" t="n">
-        <v>9.453421496772931</v>
+        <v>9.462521097841119</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3045442194240454</v>
+        <v>0.3039481932716869</v>
       </c>
       <c r="H101" t="n">
-        <v>10.30030536779597</v>
+        <v>10.27718085395995</v>
       </c>
       <c r="I101" t="n">
-        <v>0.07042856165858195</v>
+        <v>0.06152913067126874</v>
       </c>
       <c r="J101" t="n">
-        <v>10.30030536779597</v>
+        <v>10.27718085395995</v>
       </c>
       <c r="K101" t="n">
-        <v>0.209721420521943</v>
+        <v>0.2109272808773681</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10.35717760838241</v>
+        <v>10.33428433968474</v>
       </c>
       <c r="C102" t="n">
-        <v>0.03544947090209987</v>
+        <v>0.0367721433545258</v>
       </c>
       <c r="D102" t="n">
-        <v>9.501898107270558</v>
+        <v>9.510906712328062</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1439938970472067</v>
+        <v>0.1589283229003019</v>
       </c>
       <c r="F102" t="n">
-        <v>9.501898107270558</v>
+        <v>9.510906712328062</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3012981897131957</v>
+        <v>0.3006826961190876</v>
       </c>
       <c r="H102" t="n">
-        <v>10.35717760838241</v>
+        <v>10.33428433968474</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0646617148837091</v>
+        <v>0.05528466240703964</v>
       </c>
       <c r="J102" t="n">
-        <v>10.35717760838241</v>
+        <v>10.33428433968474</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2068569180923164</v>
+        <v>0.2079911722751872</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>10.41404984896885</v>
+        <v>10.39138782540954</v>
       </c>
       <c r="C103" t="n">
-        <v>0.03248421210579086</v>
+        <v>0.03361200448802587</v>
       </c>
       <c r="D103" t="n">
-        <v>9.550374717768182</v>
+        <v>9.559292326815008</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1370282400605691</v>
+        <v>0.1512374485138693</v>
       </c>
       <c r="F103" t="n">
-        <v>9.550374717768182</v>
+        <v>9.559292326815008</v>
       </c>
       <c r="G103" t="n">
-        <v>0.29785350050625</v>
+        <v>0.2971892262824931</v>
       </c>
       <c r="H103" t="n">
-        <v>10.41404984896885</v>
+        <v>10.39138782540954</v>
       </c>
       <c r="I103" t="n">
-        <v>0.05914670737889541</v>
+        <v>0.04955260981502461</v>
       </c>
       <c r="J103" t="n">
-        <v>10.41404984896885</v>
+        <v>10.39138782540954</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2041354543605493</v>
+        <v>0.2052046281591556</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>10.47092208955529</v>
+        <v>10.44849131113434</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03006560036717534</v>
+        <v>0.03094740172877153</v>
       </c>
       <c r="D104" t="n">
-        <v>9.598851328265809</v>
+        <v>9.607677941301951</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1304263584682189</v>
+        <v>0.1437909003561078</v>
       </c>
       <c r="F104" t="n">
-        <v>9.598851328265809</v>
+        <v>9.607677941301951</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2942035662523399</v>
+        <v>0.2935174135237349</v>
       </c>
       <c r="H104" t="n">
-        <v>10.47092208955529</v>
+        <v>10.44849131113434</v>
       </c>
       <c r="I104" t="n">
-        <v>0.05388025251569323</v>
+        <v>0.04428348269142566</v>
       </c>
       <c r="J104" t="n">
-        <v>10.47092208955529</v>
+        <v>10.44849131113434</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2015314140634451</v>
+        <v>0.2025460517348039</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>10.52779433014173</v>
+        <v>10.50559479685914</v>
       </c>
       <c r="C105" t="n">
-        <v>0.02826623462171565</v>
+        <v>0.02888785733987522</v>
       </c>
       <c r="D105" t="n">
-        <v>9.647327938763436</v>
+        <v>9.656063555788897</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1241406219284364</v>
+        <v>0.1365557887721613</v>
       </c>
       <c r="F105" t="n">
-        <v>9.647327938763436</v>
+        <v>9.656063555788897</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2904059815482681</v>
+        <v>0.289692876924956</v>
       </c>
       <c r="H105" t="n">
-        <v>10.52779433014173</v>
+        <v>10.50559479685914</v>
       </c>
       <c r="I105" t="n">
-        <v>0.04884928739486617</v>
+        <v>0.03944366010823216</v>
       </c>
       <c r="J105" t="n">
-        <v>10.52779433014173</v>
+        <v>10.50559479685914</v>
       </c>
       <c r="K105" t="n">
-        <v>0.1989929753796961</v>
+        <v>0.1999769242153913</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>10.58466657072816</v>
+        <v>10.56269828258394</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02706356626469068</v>
+        <v>0.02745224543798983</v>
       </c>
       <c r="D106" t="n">
-        <v>9.695804549261062</v>
+        <v>9.70444917027584</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1181346427360201</v>
+        <v>0.1294977360045485</v>
       </c>
       <c r="F106" t="n">
-        <v>9.695804549261062</v>
+        <v>9.70444917027584</v>
       </c>
       <c r="G106" t="n">
-        <v>0.2864399494618149</v>
+        <v>0.2857179810587687</v>
       </c>
       <c r="H106" t="n">
-        <v>10.58466657072816</v>
+        <v>10.56269828258394</v>
       </c>
       <c r="I106" t="n">
-        <v>0.04406375244684824</v>
+        <v>0.03500873986063475</v>
       </c>
       <c r="J106" t="n">
-        <v>10.58466657072816</v>
+        <v>10.56269828258394</v>
       </c>
       <c r="K106" t="n">
-        <v>0.196460091997702</v>
+        <v>0.1974393454630859</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>10.6415388113146</v>
+        <v>10.61980176830874</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02634164165699731</v>
+        <v>0.0265627585701892</v>
       </c>
       <c r="D107" t="n">
-        <v>9.744281159758689</v>
+        <v>9.752834784762785</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1123548334671504</v>
+        <v>0.1225780627981735</v>
       </c>
       <c r="F107" t="n">
-        <v>9.744281159758689</v>
+        <v>9.752834784762785</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2823359859353309</v>
+        <v>0.2816024941002724</v>
       </c>
       <c r="H107" t="n">
-        <v>10.6415388113146</v>
+        <v>10.61980176830874</v>
       </c>
       <c r="I107" t="n">
-        <v>0.03954595622160991</v>
+        <v>0.03094524746083647</v>
       </c>
       <c r="J107" t="n">
-        <v>10.6415388113146</v>
+        <v>10.61980176830874</v>
       </c>
       <c r="K107" t="n">
-        <v>0.1938689643772661</v>
+        <v>0.1948740299187945</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>10.69841105190104</v>
+        <v>10.67690525403354</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02591257930978293</v>
+        <v>0.0260509655997112</v>
       </c>
       <c r="D108" t="n">
-        <v>9.792757770256316</v>
+        <v>9.801220399249729</v>
       </c>
       <c r="E108" t="n">
-        <v>0.106778102639799</v>
+        <v>0.1157935491161984</v>
       </c>
       <c r="F108" t="n">
-        <v>9.792757770256316</v>
+        <v>9.801220399249729</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2780650581845447</v>
+        <v>0.2772959997718611</v>
       </c>
       <c r="H108" t="n">
-        <v>10.69841105190104</v>
+        <v>10.67690525403354</v>
       </c>
       <c r="I108" t="n">
-        <v>0.03530935894520606</v>
+        <v>0.02723132513056761</v>
       </c>
       <c r="J108" t="n">
-        <v>10.69841105190104</v>
+        <v>10.67690525403354</v>
       </c>
       <c r="K108" t="n">
-        <v>0.191149787715339</v>
+        <v>0.1922029339147376</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>10.75528329248748</v>
+        <v>10.73400873975834</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02555178088837639</v>
+        <v>0.0256946904142768</v>
       </c>
       <c r="D109" t="n">
-        <v>9.841234380753942</v>
+        <v>9.849606013736674</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1013653341054034</v>
+        <v>0.1091269748192425</v>
       </c>
       <c r="F109" t="n">
-        <v>9.841234380753942</v>
+        <v>9.849606013736674</v>
       </c>
       <c r="G109" t="n">
-        <v>0.273609239481455</v>
+        <v>0.2728320329559836</v>
       </c>
       <c r="H109" t="n">
-        <v>10.75528329248748</v>
+        <v>10.73400873975834</v>
       </c>
       <c r="I109" t="n">
-        <v>0.03136916560301972</v>
+        <v>0.02384891334828039</v>
       </c>
       <c r="J109" t="n">
-        <v>10.75528329248748</v>
+        <v>10.73400873975834</v>
       </c>
       <c r="K109" t="n">
-        <v>0.1882528078636372</v>
+        <v>0.1893522939777653</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>10.81215553307392</v>
+        <v>10.79111222548314</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02503858612991216</v>
+        <v>0.02526333571342547</v>
       </c>
       <c r="D110" t="n">
-        <v>9.889710991251569</v>
+        <v>9.897991628223618</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0960926291628354</v>
+        <v>0.1025798178382829</v>
       </c>
       <c r="F110" t="n">
-        <v>9.889710991251569</v>
+        <v>9.897991628223618</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2689728935231904</v>
+        <v>0.268160506361303</v>
       </c>
       <c r="H110" t="n">
-        <v>10.81215553307392</v>
+        <v>10.79111222548314</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02773722186974618</v>
+        <v>0.02078807801340457</v>
       </c>
       <c r="J110" t="n">
-        <v>10.81215553307392</v>
+        <v>10.79111222548314</v>
       </c>
       <c r="K110" t="n">
-        <v>0.1850617862572323</v>
+        <v>0.1862857203407025</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>10.86902777366036</v>
+        <v>10.84821571120793</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02419384758219912</v>
+        <v>0.02455564915704749</v>
       </c>
       <c r="D111" t="n">
-        <v>9.938187601749194</v>
+        <v>9.946377242710563</v>
       </c>
       <c r="E111" t="n">
-        <v>0.09094443081029412</v>
+        <v>0.09616946640323397</v>
       </c>
       <c r="F111" t="n">
-        <v>9.938187601749194</v>
+        <v>9.946377242710563</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2641281704869196</v>
+        <v>0.2632920972613509</v>
       </c>
       <c r="H111" t="n">
-        <v>10.86902777366036</v>
+        <v>10.84821571120793</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02442500254279158</v>
+        <v>0.01803493470522692</v>
       </c>
       <c r="J111" t="n">
-        <v>10.86902777366036</v>
+        <v>10.84821571120793</v>
       </c>
       <c r="K111" t="n">
-        <v>0.1815837266668209</v>
+        <v>0.1828964957548807</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>10.9259000142468</v>
+        <v>10.90531919693274</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02290741752749449</v>
+        <v>0.02343230949973326</v>
       </c>
       <c r="D112" t="n">
-        <v>9.98666421224682</v>
+        <v>9.994762857197507</v>
       </c>
       <c r="E112" t="n">
-        <v>0.08590806429015133</v>
+        <v>0.08989323919393497</v>
       </c>
       <c r="F112" t="n">
-        <v>9.98666421224682</v>
+        <v>9.994762857197507</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2590770232939763</v>
+        <v>0.2582042457289875</v>
       </c>
       <c r="H112" t="n">
-        <v>10.9259000142468</v>
+        <v>10.90531919693274</v>
       </c>
       <c r="I112" t="n">
-        <v>0.02142901482180008</v>
+        <v>0.01558383756765007</v>
       </c>
       <c r="J112" t="n">
-        <v>10.9259000142468</v>
+        <v>10.90531919693274</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1777560234028961</v>
+        <v>0.1791788991034543</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10.98277225483324</v>
+        <v>10.96242268265753</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02115123653111024</v>
+        <v>0.02183485322084155</v>
       </c>
       <c r="D113" t="n">
-        <v>10.03514082274445</v>
+        <v>10.04314847168445</v>
       </c>
       <c r="E113" t="n">
-        <v>0.08096978172150664</v>
+        <v>0.08377799150328907</v>
       </c>
       <c r="F113" t="n">
-        <v>10.03514082274445</v>
+        <v>10.04314847168445</v>
       </c>
       <c r="G113" t="n">
-        <v>0.2537985786063959</v>
+        <v>0.2529098733232462</v>
       </c>
       <c r="H113" t="n">
-        <v>10.98277225483324</v>
+        <v>10.96242268265753</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01873043044362059</v>
+        <v>0.0134178034254491</v>
       </c>
       <c r="J113" t="n">
-        <v>10.98277225483324</v>
+        <v>10.96242268265753</v>
       </c>
       <c r="K113" t="n">
-        <v>0.1735652608187847</v>
+        <v>0.1751069491064265</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.03964449541968</v>
+        <v>11.01952616838233</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01897692335839288</v>
+        <v>0.01978863543000873</v>
       </c>
       <c r="D114" t="n">
-        <v>10.08361743324207</v>
+        <v>10.0915340861714</v>
       </c>
       <c r="E114" t="n">
-        <v>0.07612909674670842</v>
+        <v>0.07783031944018202</v>
       </c>
       <c r="F114" t="n">
-        <v>10.08361743324207</v>
+        <v>10.0915340861714</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2483221938094487</v>
+        <v>0.2474171322866495</v>
       </c>
       <c r="H114" t="n">
-        <v>11.03964449541968</v>
+        <v>11.01952616838233</v>
       </c>
       <c r="I114" t="n">
-        <v>0.01632202518987581</v>
+        <v>0.01151499375057253</v>
       </c>
       <c r="J114" t="n">
-        <v>11.03964449541968</v>
+        <v>11.01952616838233</v>
       </c>
       <c r="K114" t="n">
-        <v>0.1690220679706048</v>
+        <v>0.17066809773978</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.09651673600611</v>
+        <v>11.07662965410713</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0164998448038497</v>
+        <v>0.01739084524670011</v>
       </c>
       <c r="D115" t="n">
-        <v>10.1320940437397</v>
+        <v>10.13991970065834</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07138162610251053</v>
+        <v>0.07207021029849889</v>
       </c>
       <c r="F115" t="n">
-        <v>10.1320940437397</v>
+        <v>10.13991970065834</v>
       </c>
       <c r="G115" t="n">
-        <v>0.2426543085520469</v>
+        <v>0.2417193029976631</v>
       </c>
       <c r="H115" t="n">
-        <v>11.09651673600611</v>
+        <v>11.07662965410713</v>
       </c>
       <c r="I115" t="n">
-        <v>0.01418489827787549</v>
+        <v>0.009859606679892939</v>
       </c>
       <c r="J115" t="n">
-        <v>11.09651673600611</v>
+        <v>11.07662965410713</v>
       </c>
       <c r="K115" t="n">
-        <v>0.1641655819526668</v>
+        <v>0.16589789179896</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.15338897659255</v>
+        <v>11.13373313983193</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01387404385509881</v>
+        <v>0.01478738617173693</v>
       </c>
       <c r="D116" t="n">
-        <v>10.18057065423733</v>
+        <v>10.18830531514529</v>
       </c>
       <c r="E116" t="n">
-        <v>0.06673441090756209</v>
+        <v>0.06651422453749828</v>
       </c>
       <c r="F116" t="n">
-        <v>10.18057065423733</v>
+        <v>10.18830531514529</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2367969059501367</v>
+        <v>0.2358506548587703</v>
       </c>
       <c r="H116" t="n">
-        <v>11.15338897659255</v>
+        <v>11.13373313983193</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01229290001232218</v>
+        <v>0.008423869798812492</v>
       </c>
       <c r="J116" t="n">
-        <v>11.15338897659255</v>
+        <v>11.13373313983193</v>
       </c>
       <c r="K116" t="n">
-        <v>0.1590364605337362</v>
+        <v>0.1608343520500215</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.21026121717899</v>
+        <v>11.19083662555673</v>
       </c>
       <c r="C117" t="n">
-        <v>0.011263726927291</v>
+        <v>0.01214420949149147</v>
       </c>
       <c r="D117" t="n">
-        <v>10.22904726473495</v>
+        <v>10.23669092963223</v>
       </c>
       <c r="E117" t="n">
-        <v>0.06219089894514077</v>
+        <v>0.06117081321818559</v>
       </c>
       <c r="F117" t="n">
-        <v>10.22904726473495</v>
+        <v>10.23669092963223</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2307836553964791</v>
+        <v>0.2298154039068293</v>
       </c>
       <c r="H117" t="n">
-        <v>11.21026121717899</v>
+        <v>11.19083662555673</v>
       </c>
       <c r="I117" t="n">
-        <v>0.01063664815352511</v>
+        <v>0.007185126391973006</v>
       </c>
       <c r="J117" t="n">
-        <v>11.21026121717899</v>
+        <v>11.19083662555673</v>
       </c>
       <c r="K117" t="n">
-        <v>0.1536937239114583</v>
+        <v>0.1555377544164296</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.26713345776543</v>
+        <v>11.24794011128153</v>
       </c>
       <c r="C118" t="n">
-        <v>0.008817057987656913</v>
+        <v>0.009619171270657466</v>
       </c>
       <c r="D118" t="n">
-        <v>10.27752387523258</v>
+        <v>10.28507654411917</v>
       </c>
       <c r="E118" t="n">
-        <v>0.05776878472984955</v>
+        <v>0.05606070632049324</v>
       </c>
       <c r="F118" t="n">
-        <v>10.27752387523258</v>
+        <v>10.28507654411917</v>
       </c>
       <c r="G118" t="n">
-        <v>0.2246223755318674</v>
+        <v>0.2236517419196467</v>
       </c>
       <c r="H118" t="n">
-        <v>11.26713345776543</v>
+        <v>11.24794011128153</v>
       </c>
       <c r="I118" t="n">
-        <v>0.009182343467772115</v>
+        <v>0.00611753517628221</v>
       </c>
       <c r="J118" t="n">
-        <v>11.26713345776543</v>
+        <v>11.24794011128153</v>
       </c>
       <c r="K118" t="n">
-        <v>0.1482154066378378</v>
+        <v>0.1500763417286213</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.32400569835187</v>
+        <v>11.30504359700633</v>
       </c>
       <c r="C119" t="n">
-        <v>0.006646836763134405</v>
+        <v>0.007339642695634569</v>
       </c>
       <c r="D119" t="n">
-        <v>10.32600048573021</v>
+        <v>10.33346215860612</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0534735718097222</v>
+        <v>0.05119454044741174</v>
       </c>
       <c r="F119" t="n">
-        <v>10.32600048573021</v>
+        <v>10.33346215860612</v>
       </c>
       <c r="G119" t="n">
-        <v>0.2183414538171302</v>
+        <v>0.2173561725320867</v>
       </c>
       <c r="H119" t="n">
-        <v>11.32400569835187</v>
+        <v>11.30504359700633</v>
       </c>
       <c r="I119" t="n">
-        <v>0.007901652482385653</v>
+        <v>0.00520051241403437</v>
       </c>
       <c r="J119" t="n">
-        <v>11.32400569835187</v>
+        <v>11.30504359700633</v>
       </c>
       <c r="K119" t="n">
-        <v>0.1426654292729126</v>
+        <v>0.1445179584841042</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.38087793893831</v>
+        <v>11.36214708273113</v>
       </c>
       <c r="C120" t="n">
-        <v>0.004820585743342097</v>
+        <v>0.005389205044355258</v>
       </c>
       <c r="D120" t="n">
-        <v>10.37447709622783</v>
+        <v>10.38184777309306</v>
       </c>
       <c r="E120" t="n">
-        <v>0.049330961794417</v>
+        <v>0.04658244883599914</v>
       </c>
       <c r="F120" t="n">
-        <v>10.37447709622783</v>
+        <v>10.38184777309306</v>
       </c>
       <c r="G120" t="n">
-        <v>0.2119391099454734</v>
+        <v>0.2109512171428418</v>
       </c>
       <c r="H120" t="n">
-        <v>11.38087793893831</v>
+        <v>11.36214708273113</v>
       </c>
       <c r="I120" t="n">
-        <v>0.006787343222172408</v>
+        <v>0.004416173172411243</v>
       </c>
       <c r="J120" t="n">
-        <v>11.38087793893831</v>
+        <v>11.36214708273113</v>
       </c>
       <c r="K120" t="n">
-        <v>0.1371082747098838</v>
+        <v>0.1389351959919016</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.43775017952475</v>
+        <v>11.41925056845593</v>
       </c>
       <c r="C121" t="n">
-        <v>0.003360195697353296</v>
+        <v>0.003804333750112313</v>
       </c>
       <c r="D121" t="n">
-        <v>10.42295370672546</v>
+        <v>10.43023338758001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0453452390782698</v>
+        <v>0.04223071387844963</v>
       </c>
       <c r="F121" t="n">
-        <v>10.42295370672546</v>
+        <v>10.43023338758001</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2054361776156395</v>
+        <v>0.2044587507102285</v>
       </c>
       <c r="H121" t="n">
-        <v>11.43775017952475</v>
+        <v>11.41925056845593</v>
       </c>
       <c r="I121" t="n">
-        <v>0.00581815445862035</v>
+        <v>0.003744933092397091</v>
       </c>
       <c r="J121" t="n">
-        <v>11.43775017952475</v>
+        <v>11.41925056845593</v>
       </c>
       <c r="K121" t="n">
-        <v>0.131597607134103</v>
+        <v>0.1333836787586904</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.49462242011118</v>
+        <v>11.47635405418072</v>
       </c>
       <c r="C122" t="n">
-        <v>0.00224986738122095</v>
+        <v>0.002579681483578588</v>
       </c>
       <c r="D122" t="n">
-        <v>10.47143031722308</v>
+        <v>10.47861900206695</v>
       </c>
       <c r="E122" t="n">
-        <v>0.04153822521323439</v>
+        <v>0.0381549839418907</v>
       </c>
       <c r="F122" t="n">
-        <v>10.47143031722308</v>
+        <v>10.47861900206695</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1988617800594107</v>
+        <v>0.1978808518355443</v>
       </c>
       <c r="H122" t="n">
-        <v>11.49462242011118</v>
+        <v>11.47635405418072</v>
       </c>
       <c r="I122" t="n">
-        <v>0.004981813061255145</v>
+        <v>0.003180797113512346</v>
       </c>
       <c r="J122" t="n">
-        <v>11.49462242011118</v>
+        <v>11.47635405418072</v>
       </c>
       <c r="K122" t="n">
-        <v>0.1261802375579791</v>
+        <v>0.1279082701125682</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.55149466069762</v>
+        <v>11.53345753990552</v>
       </c>
       <c r="C123" t="n">
-        <v>0.00144831449853772</v>
+        <v>0.001678992649339664</v>
       </c>
       <c r="D123" t="n">
-        <v>10.51990692772071</v>
+        <v>10.5270046165539</v>
       </c>
       <c r="E123" t="n">
-        <v>0.03791775530009687</v>
+        <v>0.03435174119097171</v>
       </c>
       <c r="F123" t="n">
-        <v>10.51990692772071</v>
+        <v>10.5270046165539</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1922173442303593</v>
+        <v>0.1912467247808437</v>
       </c>
       <c r="H123" t="n">
-        <v>11.55149466069762</v>
+        <v>11.53345753990552</v>
       </c>
       <c r="I123" t="n">
-        <v>0.004261699121726492</v>
+        <v>0.002718727158324285</v>
       </c>
       <c r="J123" t="n">
-        <v>11.55149466069762</v>
+        <v>11.53345753990552</v>
       </c>
       <c r="K123" t="n">
-        <v>0.1208821086974896</v>
+        <v>0.1225492448061152</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.60836690128406</v>
+        <v>11.59056102563032</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0008948032194844517</v>
+        <v>0.001048135137037108</v>
       </c>
       <c r="D124" t="n">
-        <v>10.56838353821833</v>
+        <v>10.57539023104084</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03449520336960634</v>
+        <v>0.03082240542983244</v>
       </c>
       <c r="F124" t="n">
-        <v>10.56838353821833</v>
+        <v>10.57539023104084</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1855213565364551</v>
+        <v>0.1845451044522059</v>
       </c>
       <c r="H124" t="n">
-        <v>11.60836690128406</v>
+        <v>11.59056102563032</v>
       </c>
       <c r="I124" t="n">
-        <v>0.00365361490052727</v>
+        <v>0.002329666401919171</v>
       </c>
       <c r="J124" t="n">
-        <v>11.60836690128406</v>
+        <v>11.59056102563032</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1157090918491413</v>
+        <v>0.1173220957969753</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.6652391418705</v>
+        <v>11.64766451135512</v>
       </c>
       <c r="C125" t="n">
-        <v>0.000530279006229956</v>
+        <v>0.0006271751269545386</v>
       </c>
       <c r="D125" t="n">
-        <v>10.61686014871596</v>
+        <v>10.62377584552778</v>
       </c>
       <c r="E125" t="n">
-        <v>0.03127608493928995</v>
+        <v>0.02757508800948895</v>
       </c>
       <c r="F125" t="n">
-        <v>10.61686014871596</v>
+        <v>10.62377584552778</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1787758783428414</v>
+        <v>0.1778130282059563</v>
       </c>
       <c r="H125" t="n">
-        <v>11.6652391418705</v>
+        <v>11.64766451135512</v>
       </c>
       <c r="I125" t="n">
-        <v>0.003140077316982124</v>
+        <v>0.00199914592025328</v>
       </c>
       <c r="J125" t="n">
-        <v>11.6652391418705</v>
+        <v>11.64766451135512</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1106969008552633</v>
+        <v>0.1122250903800743</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.72211138245694</v>
+        <v>11.70476799707992</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0003012771061145855</v>
+        <v>0.0003595057116681405</v>
       </c>
       <c r="D126" t="n">
-        <v>10.66533675921359</v>
+        <v>10.67216146001473</v>
       </c>
       <c r="E126" t="n">
-        <v>0.02826694735182165</v>
+        <v>0.02459039827091907</v>
       </c>
       <c r="F126" t="n">
-        <v>10.66533675921359</v>
+        <v>10.67216146001473</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1720017310193541</v>
+        <v>0.1710451351178226</v>
       </c>
       <c r="H126" t="n">
-        <v>11.72211138245694</v>
+        <v>11.70476799707992</v>
       </c>
       <c r="I126" t="n">
-        <v>0.002696468933899493</v>
+        <v>0.001720797406241203</v>
       </c>
       <c r="J126" t="n">
-        <v>11.72211138245694</v>
+        <v>11.70476799707992</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1058043964053949</v>
+        <v>0.1072807704107368</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.77898362304338</v>
+        <v>11.76187148280472</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0001640220486017904</v>
+        <v>0.0001973031901360973</v>
       </c>
       <c r="D127" t="n">
-        <v>10.71381336971121</v>
+        <v>10.72054707450167</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02546018370269943</v>
+        <v>0.02187067490226121</v>
       </c>
       <c r="F127" t="n">
-        <v>10.71381336971121</v>
+        <v>10.72054707450167</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1652074768013894</v>
+        <v>0.1642643461570486</v>
       </c>
       <c r="H127" t="n">
-        <v>11.77898362304338</v>
+        <v>11.76187148280472</v>
       </c>
       <c r="I127" t="n">
-        <v>0.002312907607890983</v>
+        <v>0.001483244251825067</v>
       </c>
       <c r="J127" t="n">
-        <v>11.77898362304338</v>
+        <v>11.76187148280472</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1010351234958366</v>
+        <v>0.1024633618363435</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.83585586362982</v>
+        <v>11.81897496852952</v>
       </c>
       <c r="C128" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D128" t="n">
-        <v>10.76228998020884</v>
+        <v>10.76893268898862</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02286391785460005</v>
+        <v>0.01940088990940369</v>
       </c>
       <c r="F128" t="n">
-        <v>10.76228998020884</v>
+        <v>10.76893268898862</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1584089164908962</v>
+        <v>0.1574792543035545</v>
       </c>
       <c r="H128" t="n">
-        <v>11.83585586362982</v>
+        <v>11.81897496852952</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0019849468177413</v>
+        <v>0.001279534434851442</v>
       </c>
       <c r="J128" t="n">
-        <v>11.83585586362982</v>
+        <v>11.81897496852952</v>
       </c>
       <c r="K128" t="n">
-        <v>0.09638651703871236</v>
+        <v>0.09775715075758883</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.89272810421626</v>
+        <v>11.87607845425432</v>
       </c>
       <c r="C129" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D129" t="n">
-        <v>10.81076659070647</v>
+        <v>10.81731830347556</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02045606316807458</v>
+        <v>0.01716582142845511</v>
       </c>
       <c r="F129" t="n">
-        <v>10.81076659070647</v>
+        <v>10.81731830347556</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1516300458673324</v>
+        <v>0.1507230938529729</v>
       </c>
       <c r="H129" t="n">
-        <v>11.89272810421626</v>
+        <v>11.87607845425432</v>
       </c>
       <c r="I129" t="n">
-        <v>0.001699225291095375</v>
+        <v>0.00110131681510516</v>
       </c>
       <c r="J129" t="n">
-        <v>11.89272810421626</v>
+        <v>11.87607845425432</v>
       </c>
       <c r="K129" t="n">
-        <v>0.0918390349356709</v>
+        <v>0.09315401108319676</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.9496003448027</v>
+        <v>11.93318193997912</v>
       </c>
       <c r="C130" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D130" t="n">
-        <v>10.85924320120409</v>
+        <v>10.86570391796251</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01824683207815667</v>
+        <v>0.01515386019100403</v>
       </c>
       <c r="F130" t="n">
-        <v>10.85924320120409</v>
+        <v>10.86570391796251</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1448987026658224</v>
+        <v>0.1440013682335929</v>
       </c>
       <c r="H130" t="n">
-        <v>11.9496003448027</v>
+        <v>11.93318193997912</v>
       </c>
       <c r="I130" t="n">
-        <v>0.001451338890550165</v>
+        <v>0.0009423394684953195</v>
       </c>
       <c r="J130" t="n">
-        <v>11.9496003448027</v>
+        <v>11.93318193997912</v>
       </c>
       <c r="K130" t="n">
-        <v>0.08737366380821238</v>
+        <v>0.08865380276428216</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.00647258538913</v>
+        <v>11.99028542570392</v>
       </c>
       <c r="C131" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D131" t="n">
-        <v>10.90771981170172</v>
+        <v>10.91408953244945</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01621653529973239</v>
+        <v>0.01334306553475455</v>
       </c>
       <c r="F131" t="n">
-        <v>10.90771981170172</v>
+        <v>10.91408953244945</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1382264574140822</v>
+        <v>0.1373520457379925</v>
       </c>
       <c r="H131" t="n">
-        <v>12.00647258538913</v>
+        <v>11.99028542570392</v>
       </c>
       <c r="I131" t="n">
-        <v>0.001235086359423048</v>
+        <v>0.0007992179349992667</v>
       </c>
       <c r="J131" t="n">
-        <v>12.00647258538913</v>
+        <v>11.99028542570392</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0829843788584182</v>
+        <v>0.08423105176820832</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>12.06334482597557</v>
+        <v>12.04738891142872</v>
       </c>
       <c r="C132" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D132" t="n">
-        <v>10.95619642219935</v>
+        <v>10.9624751469364</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01436365863583345</v>
+        <v>0.01172019280707233</v>
       </c>
       <c r="F132" t="n">
-        <v>10.95619642219935</v>
+        <v>10.9624751469364</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1316480873059309</v>
+        <v>0.1308003299858593</v>
       </c>
       <c r="H132" t="n">
-        <v>12.06334482597557</v>
+        <v>12.04738891142872</v>
       </c>
       <c r="I132" t="n">
-        <v>0.001045568707609314</v>
+        <v>0.0006724066803498241</v>
       </c>
       <c r="J132" t="n">
-        <v>12.06334482597557</v>
+        <v>12.04738891142872</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0786746343346309</v>
+        <v>0.07987392722972569</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.12021706656201</v>
+        <v>12.10449239715351</v>
       </c>
       <c r="C133" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D133" t="n">
-        <v>11.00467303269697</v>
+        <v>11.01086076142334</v>
       </c>
       <c r="E133" t="n">
-        <v>0.01267155759844347</v>
+        <v>0.01026705351466262</v>
       </c>
       <c r="F133" t="n">
-        <v>11.00467303269697</v>
+        <v>11.01086076142334</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1251933555105282</v>
+        <v>0.1243833155433334</v>
       </c>
       <c r="H133" t="n">
-        <v>12.12021706656201</v>
+        <v>12.10449239715351</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0008788940018548013</v>
+        <v>0.0005591645347882531</v>
       </c>
       <c r="J133" t="n">
-        <v>12.12021706656201</v>
+        <v>12.10449239715351</v>
       </c>
       <c r="K133" t="n">
-        <v>0.07442819152841815</v>
+        <v>0.07559827497091054</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.17708930714845</v>
+        <v>12.16159588287831</v>
       </c>
       <c r="C134" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D134" t="n">
-        <v>11.0531496431946</v>
+        <v>11.05924637591028</v>
       </c>
       <c r="E134" t="n">
-        <v>0.01113993544981369</v>
+        <v>0.008965732018978647</v>
       </c>
       <c r="F134" t="n">
-        <v>11.0531496431946</v>
+        <v>11.05924637591028</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1189060921963718</v>
+        <v>0.1181285951334066</v>
       </c>
       <c r="H134" t="n">
-        <v>12.17708930714845</v>
+        <v>12.16159588287831</v>
       </c>
       <c r="I134" t="n">
-        <v>0.0007382234962019212</v>
+        <v>0.0004620090092763375</v>
       </c>
       <c r="J134" t="n">
-        <v>12.17708930714845</v>
+        <v>12.16159588287831</v>
       </c>
       <c r="K134" t="n">
-        <v>0.07025852570362598</v>
+        <v>0.0713879437276565</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>12.23396154773489</v>
+        <v>12.21869936860311</v>
       </c>
       <c r="C135" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D135" t="n">
-        <v>11.10162625369222</v>
+        <v>11.10763199039723</v>
       </c>
       <c r="E135" t="n">
-        <v>0.009758779434849443</v>
+        <v>0.007803678005946529</v>
       </c>
       <c r="F135" t="n">
-        <v>11.10162625369222</v>
+        <v>11.10763199039723</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1127956892389898</v>
+        <v>0.112048338555621</v>
       </c>
       <c r="H135" t="n">
-        <v>12.23396154773489</v>
+        <v>12.21869936860311</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0006160097705221838</v>
+        <v>0.0003782793459329366</v>
       </c>
       <c r="J135" t="n">
-        <v>12.23396154773489</v>
+        <v>12.21869936860311</v>
       </c>
       <c r="K135" t="n">
-        <v>0.06616151047154346</v>
+        <v>0.06725255689125437</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.29083378832133</v>
+        <v>12.27580285432791</v>
       </c>
       <c r="C136" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D136" t="n">
-        <v>11.15010286418985</v>
+        <v>11.15601760488417</v>
       </c>
       <c r="E136" t="n">
-        <v>0.008511144688568728</v>
+        <v>0.006769065077689463</v>
       </c>
       <c r="F136" t="n">
-        <v>11.15010286418985</v>
+        <v>11.15601760488417</v>
       </c>
       <c r="G136" t="n">
-        <v>0.106895001199525</v>
+        <v>0.1061947824333172</v>
       </c>
       <c r="H136" t="n">
-        <v>12.29083378832133</v>
+        <v>12.27580285432791</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0005160870719445034</v>
+        <v>0.0003063468849706548</v>
       </c>
       <c r="J136" t="n">
-        <v>12.29083378832133</v>
+        <v>12.27580285432791</v>
       </c>
       <c r="K136" t="n">
-        <v>0.06213689660958432</v>
+        <v>0.06319610363647546</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.34770602890777</v>
+        <v>12.33290634005271</v>
       </c>
       <c r="C137" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D137" t="n">
-        <v>11.19857947468748</v>
+        <v>11.20440321937112</v>
       </c>
       <c r="E137" t="n">
-        <v>0.007403078826278656</v>
+        <v>0.005845398264567558</v>
       </c>
       <c r="F137" t="n">
-        <v>11.19857947468748</v>
+        <v>11.20440321937112</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1012339965265951</v>
+        <v>0.1005708091629193</v>
       </c>
       <c r="H137" t="n">
-        <v>12.34770602890777</v>
+        <v>12.33290634005271</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0004296599257014997</v>
+        <v>0.000247880764069882</v>
       </c>
       <c r="J137" t="n">
-        <v>12.34770602890777</v>
+        <v>12.33290634005271</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05820808280320468</v>
+        <v>0.05922033740362401</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.40457826949421</v>
+        <v>12.39000982577751</v>
       </c>
       <c r="C138" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D138" t="n">
-        <v>11.2470560851851</v>
+        <v>11.25278883385806</v>
       </c>
       <c r="E138" t="n">
-        <v>0.006414416438919344</v>
+        <v>0.005031085101464938</v>
       </c>
       <c r="F138" t="n">
-        <v>11.2470560851851</v>
+        <v>11.25278883385806</v>
       </c>
       <c r="G138" t="n">
-        <v>0.09582088573569043</v>
+        <v>0.09520093540029288</v>
       </c>
       <c r="H138" t="n">
-        <v>12.40457826949421</v>
+        <v>12.39000982577751</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0003572692435666074</v>
+        <v>0.0002007974242912258</v>
       </c>
       <c r="J138" t="n">
-        <v>12.40457826949421</v>
+        <v>12.39000982577751</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05436670477735765</v>
+        <v>0.05534196616822539</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.46145051008065</v>
+        <v>12.44711331150231</v>
       </c>
       <c r="C139" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D139" t="n">
-        <v>11.29553269568273</v>
+        <v>11.30117444834501</v>
       </c>
       <c r="E139" t="n">
-        <v>0.00554538734407919</v>
+        <v>0.00430792150441532</v>
       </c>
       <c r="F139" t="n">
-        <v>11.29553269568273</v>
+        <v>11.30117444834501</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0906739161664569</v>
+        <v>0.09009005754861971</v>
       </c>
       <c r="H139" t="n">
-        <v>12.46145051008065</v>
+        <v>12.44711331150231</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0002978433877060171</v>
+        <v>0.0001649297556308575</v>
       </c>
       <c r="J139" t="n">
-        <v>12.46145051008065</v>
+        <v>12.44711331150231</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05063708731607733</v>
+        <v>0.05156661972850959</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.51832275066708</v>
+        <v>12.50421679722711</v>
       </c>
       <c r="C140" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D140" t="n">
-        <v>11.34400930618036</v>
+        <v>11.34956006283195</v>
       </c>
       <c r="E140" t="n">
-        <v>0.004783110548517004</v>
+        <v>0.003677832528992347</v>
       </c>
       <c r="F140" t="n">
-        <v>11.34400930618036</v>
+        <v>11.34956006283195</v>
       </c>
       <c r="G140" t="n">
-        <v>0.08578477198539518</v>
+        <v>0.08524756667081085</v>
       </c>
       <c r="H140" t="n">
-        <v>12.51832275066708</v>
+        <v>12.50421679722711</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0002501506048935813</v>
+        <v>0.0001384497837579719</v>
       </c>
       <c r="J140" t="n">
-        <v>12.51832275066708</v>
+        <v>12.50421679722711</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04702211524582826</v>
+        <v>0.04790644447539838</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.57519499125352</v>
+        <v>12.56132028295191</v>
       </c>
       <c r="C141" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D141" t="n">
-        <v>11.39248591667798</v>
+        <v>11.39794567731889</v>
       </c>
       <c r="E141" t="n">
-        <v>0.004113882010408568</v>
+        <v>0.003126029293114849</v>
       </c>
       <c r="F141" t="n">
-        <v>11.39248591667798</v>
+        <v>11.39794567731889</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0811814767843939</v>
+        <v>0.08067859026293209</v>
       </c>
       <c r="H141" t="n">
-        <v>12.57519499125352</v>
+        <v>12.56132028295191</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0002131825677345354</v>
+        <v>0.0001192016173181105</v>
       </c>
       <c r="J141" t="n">
-        <v>12.57519499125352</v>
+        <v>12.56132028295191</v>
       </c>
       <c r="K141" t="n">
-        <v>0.04353522850102524</v>
+        <v>0.04437326521652277</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12.63206723183996</v>
+        <v>12.61842376867671</v>
       </c>
       <c r="C142" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D142" t="n">
-        <v>11.44096252717561</v>
+        <v>11.44633129180584</v>
       </c>
       <c r="E142" t="n">
-        <v>0.003528502670824932</v>
+        <v>0.002647588524751432</v>
       </c>
       <c r="F142" t="n">
-        <v>11.44096252717561</v>
+        <v>11.44633129180584</v>
       </c>
       <c r="G142" t="n">
-        <v>0.07682832566987481</v>
+        <v>0.07635789518901938</v>
       </c>
       <c r="H142" t="n">
-        <v>12.63206723183996</v>
+        <v>12.61842376867671</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0001846968574292621</v>
+        <v>0.0001063484961131192</v>
       </c>
       <c r="J142" t="n">
-        <v>12.63206723183996</v>
+        <v>12.61842376867671</v>
       </c>
       <c r="K142" t="n">
-        <v>0.04018737450900627</v>
+        <v>0.04097526523800561</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.6889394724264</v>
+        <v>12.6755272544015</v>
       </c>
       <c r="C143" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D143" t="n">
-        <v>11.48943913767324</v>
+        <v>11.49471690629278</v>
       </c>
       <c r="E143" t="n">
-        <v>0.003028063376040119</v>
+        <v>0.002234820053287901</v>
       </c>
       <c r="F143" t="n">
-        <v>11.48943913767324</v>
+        <v>11.49471690629278</v>
       </c>
       <c r="G143" t="n">
-        <v>0.07272699272160678</v>
+        <v>0.07229390205798247</v>
       </c>
       <c r="H143" t="n">
-        <v>12.6889394724264</v>
+        <v>12.6755272544015</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0001639400840980756</v>
+        <v>9.76033201751145e-05</v>
       </c>
       <c r="J143" t="n">
-        <v>12.6889394724264</v>
+        <v>12.6755272544015</v>
       </c>
       <c r="K143" t="n">
-        <v>0.03698898542820942</v>
+        <v>0.03772882962447555</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.74581171301284</v>
+        <v>12.73263074012631</v>
       </c>
       <c r="C144" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D144" t="n">
-        <v>11.53791574817086</v>
+        <v>11.54310252077973</v>
       </c>
       <c r="E144" t="n">
-        <v>0.002591192034669112</v>
+        <v>0.001877322357678264</v>
       </c>
       <c r="F144" t="n">
-        <v>11.53791574817086</v>
+        <v>11.54310252077973</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0688660176973136</v>
+        <v>0.06846474231347879</v>
       </c>
       <c r="H144" t="n">
-        <v>12.74581171301284</v>
+        <v>12.73263074012631</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0001485351365415086</v>
+        <v>9.199267107750926e-05</v>
       </c>
       <c r="J144" t="n">
-        <v>12.74581171301284</v>
+        <v>12.73263074012631</v>
       </c>
       <c r="K144" t="n">
-        <v>0.03395399506660142</v>
+        <v>0.03463990993292233</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.80268395359928</v>
+        <v>12.7897342258511</v>
       </c>
       <c r="C145" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D145" t="n">
-        <v>11.58639235866849</v>
+        <v>11.59148813526667</v>
       </c>
       <c r="E145" t="n">
-        <v>0.002217145128169747</v>
+        <v>0.001570782838562191</v>
       </c>
       <c r="F145" t="n">
-        <v>11.58639235866849</v>
+        <v>11.59148813526667</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06522641769367798</v>
+        <v>0.06485998159752951</v>
       </c>
       <c r="H145" t="n">
-        <v>12.80268395359928</v>
+        <v>12.7897342258511</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0001380285219035809</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J145" t="n">
-        <v>12.80268395359928</v>
+        <v>12.7897342258511</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0310795633925887</v>
+        <v>0.03172076254351844</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.85955619418572</v>
+        <v>12.8468377115759</v>
       </c>
       <c r="C146" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D146" t="n">
-        <v>11.63486896916611</v>
+        <v>11.63987374975362</v>
       </c>
       <c r="E146" t="n">
-        <v>0.001894734386091773</v>
+        <v>0.001306885191265429</v>
       </c>
       <c r="F146" t="n">
-        <v>11.63486896916611</v>
+        <v>11.63987374975362</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06179720430307303</v>
+        <v>0.06145221223849782</v>
       </c>
       <c r="H146" t="n">
-        <v>12.85955619418572</v>
+        <v>12.8468377115759</v>
       </c>
       <c r="I146" t="n">
-        <v>0.000130550173914646</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J146" t="n">
-        <v>12.85955619418572</v>
+        <v>12.8468377115759</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0283883135874685</v>
+        <v>0.02897441441772005</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.91642843477215</v>
+        <v>12.9039411973007</v>
       </c>
       <c r="C147" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D147" t="n">
-        <v>11.68334557966374</v>
+        <v>11.68825936424056</v>
       </c>
       <c r="E147" t="n">
-        <v>0.001613687321319736</v>
+        <v>0.001083295070501536</v>
       </c>
       <c r="F147" t="n">
-        <v>11.68334557966374</v>
+        <v>11.68825936424056</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05853853791078741</v>
+        <v>0.05821760584441168</v>
       </c>
       <c r="H147" t="n">
-        <v>12.91642843477215</v>
+        <v>12.9039411973007</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0001256973800832123</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J147" t="n">
-        <v>12.91642843477215</v>
+        <v>12.9039411973007</v>
       </c>
       <c r="K147" t="n">
-        <v>0.02586787628017738</v>
+        <v>0.02640750802617612</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>12.97330067535859</v>
+        <v>12.9610446830255</v>
       </c>
       <c r="C148" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D148" t="n">
-        <v>11.73182219016137</v>
+        <v>11.73664497872751</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001372985337832772</v>
+        <v>0.0008931496884578818</v>
       </c>
       <c r="F148" t="n">
-        <v>11.73182219016137</v>
+        <v>11.73664497872751</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05545137825391837</v>
+        <v>0.05515380256260932</v>
       </c>
       <c r="H148" t="n">
-        <v>12.97330067535859</v>
+        <v>12.9610446830255</v>
       </c>
       <c r="I148" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J148" t="n">
-        <v>12.97330067535859</v>
+        <v>12.9610446830255</v>
       </c>
       <c r="K148" t="n">
-        <v>0.02353640162771358</v>
+        <v>0.0240230266613925</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>13.03017291594503</v>
+        <v>13.0181481687503</v>
       </c>
       <c r="C149" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D149" t="n">
-        <v>11.78029880065899</v>
+        <v>11.78503059321445</v>
       </c>
       <c r="E149" t="n">
-        <v>0.001162674336456957</v>
+        <v>0.000730465483345941</v>
       </c>
       <c r="F149" t="n">
-        <v>11.78029880065899</v>
+        <v>11.78503059321445</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05250098833967437</v>
+        <v>0.05221961243063458</v>
       </c>
       <c r="H149" t="n">
-        <v>13.03017291594503</v>
+        <v>13.0181481687503</v>
       </c>
       <c r="I149" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J149" t="n">
-        <v>13.03017291594503</v>
+        <v>13.0181481687503</v>
       </c>
       <c r="K149" t="n">
-        <v>0.02137780118416344</v>
+        <v>0.02182205226044606</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.08704515653147</v>
+        <v>13.0752516544751</v>
       </c>
       <c r="C150" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D150" t="n">
-        <v>11.82877541115662</v>
+        <v>11.8334162077014</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0009801684367862391</v>
+        <v>0.0005949623385394487</v>
       </c>
       <c r="F150" t="n">
-        <v>11.82877541115662</v>
+        <v>11.8334162077014</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04967591406902291</v>
+        <v>0.04941260068597687</v>
       </c>
       <c r="H150" t="n">
-        <v>13.08704515653147</v>
+        <v>13.0752516544751</v>
       </c>
       <c r="I150" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J150" t="n">
-        <v>13.08704515653147</v>
+        <v>13.0752516544751</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0194031457382178</v>
+        <v>0.01979867331867996</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.14391739711791</v>
+        <v>13.1323551401999</v>
       </c>
       <c r="C151" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D151" t="n">
-        <v>11.87725202165425</v>
+        <v>11.88180182218834</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0008225245850238045</v>
+        <v>0.0004808543133757257</v>
       </c>
       <c r="F151" t="n">
-        <v>11.87725202165425</v>
+        <v>11.88180182218834</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04695309771810147</v>
+        <v>0.04669968482568397</v>
       </c>
       <c r="H151" t="n">
-        <v>13.14391739711791</v>
+        <v>13.1323551401999</v>
       </c>
       <c r="I151" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J151" t="n">
-        <v>13.14391739711791</v>
+        <v>13.1323551401999</v>
       </c>
       <c r="K151" t="n">
-        <v>0.01759527174543647</v>
+        <v>0.01794995527579228</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.20078963770435</v>
+        <v>13.1894586259247</v>
       </c>
       <c r="C152" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D152" t="n">
-        <v>11.92572863215187</v>
+        <v>11.93018743667528</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0006864313543562774</v>
+        <v>0.0003879390221431279</v>
       </c>
       <c r="F152" t="n">
-        <v>11.92572863215187</v>
+        <v>11.93018743667528</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04432175317526781</v>
+        <v>0.04408567741424399</v>
       </c>
       <c r="H152" t="n">
-        <v>13.20078963770435</v>
+        <v>13.1894586259247</v>
       </c>
       <c r="I152" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J152" t="n">
-        <v>13.20078963770435</v>
+        <v>13.1894586259247</v>
       </c>
       <c r="K152" t="n">
-        <v>0.015946893434487</v>
+        <v>0.01626304078844914</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>13.25766187829079</v>
+        <v>13.2465621116495</v>
       </c>
       <c r="C153" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D153" t="n">
-        <v>11.9742052426495</v>
+        <v>11.97857305116223</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0005701867164456302</v>
+        <v>0.0003138151351710613</v>
       </c>
       <c r="F153" t="n">
-        <v>11.9742052426495</v>
+        <v>11.97857305116223</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04178607802599318</v>
+        <v>0.04156243979682958</v>
       </c>
       <c r="H153" t="n">
-        <v>13.25766187829079</v>
+        <v>13.2465621116495</v>
       </c>
       <c r="I153" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J153" t="n">
-        <v>13.25766187829079</v>
+        <v>13.2465621116495</v>
       </c>
       <c r="K153" t="n">
-        <v>0.01445297024892743</v>
+        <v>0.01473044745418254</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.31453411887723</v>
+        <v>13.30366559737429</v>
       </c>
       <c r="C154" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D154" t="n">
-        <v>12.02268185314712</v>
+        <v>12.02695866564917</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0004760812129708798</v>
+        <v>0.0002544912369291424</v>
       </c>
       <c r="F154" t="n">
-        <v>12.02268185314712</v>
+        <v>12.02695866564917</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03932951966070942</v>
+        <v>0.03911780956538757</v>
       </c>
       <c r="H154" t="n">
-        <v>13.31453411887723</v>
+        <v>13.30366559737429</v>
       </c>
       <c r="I154" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J154" t="n">
-        <v>13.31453411887723</v>
+        <v>13.30366559737429</v>
       </c>
       <c r="K154" t="n">
-        <v>0.01309558655305711</v>
+        <v>0.0133453269608756</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>13.37140635946367</v>
+        <v>13.36076908309909</v>
       </c>
       <c r="C155" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D155" t="n">
-        <v>12.07115846364475</v>
+        <v>12.07534428013612</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0003969544415832083</v>
+        <v>0.0002061754046699544</v>
       </c>
       <c r="F155" t="n">
-        <v>12.07115846364475</v>
+        <v>12.07534428013612</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03695189757070087</v>
+        <v>0.03674967282459943</v>
       </c>
       <c r="H155" t="n">
-        <v>13.37140635946367</v>
+        <v>13.36076908309909</v>
       </c>
       <c r="I155" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J155" t="n">
-        <v>13.37140635946367</v>
+        <v>13.36076908309909</v>
       </c>
       <c r="K155" t="n">
-        <v>0.01187000850746852</v>
+        <v>0.0120875337239685</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.42827860005011</v>
+        <v>13.41787256882389</v>
       </c>
       <c r="C156" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D156" t="n">
-        <v>12.11963507414238</v>
+        <v>12.12372989462306</v>
       </c>
       <c r="E156" t="n">
-        <v>0.0003310421071335985</v>
+        <v>0.000170810179871258</v>
       </c>
       <c r="F156" t="n">
-        <v>12.11963507414238</v>
+        <v>12.12372989462306</v>
       </c>
       <c r="G156" t="n">
-        <v>0.03465300164540525</v>
+        <v>0.03446117978651556</v>
       </c>
       <c r="H156" t="n">
-        <v>13.42827860005011</v>
+        <v>13.41787256882389</v>
       </c>
       <c r="I156" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J156" t="n">
-        <v>13.42827860005011</v>
+        <v>13.41787256882389</v>
       </c>
       <c r="K156" t="n">
-        <v>0.01075568258311371</v>
+        <v>0.01095224413610813</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13.48515084063654</v>
+        <v>13.47497605454869</v>
       </c>
       <c r="C157" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D157" t="n">
-        <v>12.16811168464</v>
+        <v>12.17211550911001</v>
       </c>
       <c r="E157" t="n">
-        <v>0.000280975388181753</v>
+        <v>0.0001423098968819371</v>
       </c>
       <c r="F157" t="n">
-        <v>12.16811168464</v>
+        <v>12.17211550911001</v>
       </c>
       <c r="G157" t="n">
-        <v>0.03243479989911364</v>
+        <v>0.03225645694932579</v>
       </c>
       <c r="H157" t="n">
-        <v>13.48515084063654</v>
+        <v>13.47497605454869</v>
       </c>
       <c r="I157" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J157" t="n">
-        <v>13.48515084063654</v>
+        <v>13.47497605454869</v>
       </c>
       <c r="K157" t="n">
-        <v>0.009746855838964799</v>
+        <v>0.009919455289589348</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.54202308122298</v>
+        <v>13.53207954027349</v>
       </c>
       <c r="C158" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D158" t="n">
-        <v>12.21658829513763</v>
+        <v>12.22050112359695</v>
       </c>
       <c r="E158" t="n">
-        <v>0.000239496489479588</v>
+        <v>0.0001207375610209296</v>
       </c>
       <c r="F158" t="n">
-        <v>12.21658829513763</v>
+        <v>12.22050112359695</v>
       </c>
       <c r="G158" t="n">
-        <v>0.03029865166311637</v>
+        <v>0.03012900208664973</v>
       </c>
       <c r="H158" t="n">
-        <v>13.54202308122298</v>
+        <v>13.53207954027349</v>
       </c>
       <c r="I158" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J158" t="n">
-        <v>13.54202308122298</v>
+        <v>13.53207954027349</v>
       </c>
       <c r="K158" t="n">
-        <v>0.008831532052937128</v>
+        <v>0.008985899686764177</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.59889532180942</v>
+        <v>13.58918302599829</v>
       </c>
       <c r="C159" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D159" t="n">
-        <v>12.26506490563526</v>
+        <v>12.2688867380839</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0002064360099108764</v>
+        <v>0.0001043765152490841</v>
       </c>
       <c r="F159" t="n">
-        <v>12.26506490563526</v>
+        <v>12.2688867380839</v>
       </c>
       <c r="G159" t="n">
-        <v>0.02824058587548648</v>
+        <v>0.02808328662980986</v>
       </c>
       <c r="H159" t="n">
-        <v>13.59889532180942</v>
+        <v>13.58918302599829</v>
       </c>
       <c r="I159" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J159" t="n">
-        <v>13.59889532180942</v>
+        <v>13.58918302599829</v>
       </c>
       <c r="K159" t="n">
-        <v>0.00799831527521367</v>
+        <v>0.008136981809185562</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>13.65576756239586</v>
+        <v>13.64628651172309</v>
       </c>
       <c r="C160" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D160" t="n">
-        <v>12.31354151613288</v>
+        <v>12.31727235257084</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0001803041605829919</v>
+        <v>9.219693465526883e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>12.31354151613288</v>
+        <v>12.31727235257084</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0262714051455457</v>
+        <v>0.0261231043685633</v>
       </c>
       <c r="H160" t="n">
-        <v>13.65576756239586</v>
+        <v>13.64628651172309</v>
       </c>
       <c r="I160" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J160" t="n">
-        <v>13.65576756239586</v>
+        <v>13.64628651172309</v>
       </c>
       <c r="K160" t="n">
-        <v>0.007244209720000977</v>
+        <v>0.007365602164379911</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.7126398029823</v>
+        <v>13.70338999744789</v>
       </c>
       <c r="C161" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D161" t="n">
-        <v>12.36201812663051</v>
+        <v>12.36565796705778</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0001596955657768376</v>
+        <v>8.375459894422978e-05</v>
       </c>
       <c r="F161" t="n">
-        <v>12.36201812663051</v>
+        <v>12.36565796705778</v>
       </c>
       <c r="G161" t="n">
-        <v>0.02437934297310789</v>
+        <v>0.02423973256536472</v>
       </c>
       <c r="H161" t="n">
-        <v>13.7126398029823</v>
+        <v>13.70338999744789</v>
       </c>
       <c r="I161" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J161" t="n">
-        <v>13.7126398029823</v>
+        <v>13.70338999744789</v>
       </c>
       <c r="K161" t="n">
-        <v>0.006558019778698594</v>
+        <v>0.006665963919488527</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.76951204356874</v>
+        <v>13.76049348317269</v>
       </c>
       <c r="C162" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D162" t="n">
-        <v>12.41049473712814</v>
+        <v>12.41404358154473</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0001442641546427698</v>
+        <v>7.769492978856857e-05</v>
       </c>
       <c r="F162" t="n">
-        <v>12.41049473712814</v>
+        <v>12.41404358154473</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0225733164029704</v>
+        <v>0.02244452242853244</v>
       </c>
       <c r="H162" t="n">
-        <v>13.76951204356874</v>
+        <v>13.76049348317269</v>
       </c>
       <c r="I162" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J162" t="n">
-        <v>13.76951204356874</v>
+        <v>13.76049348317269</v>
       </c>
       <c r="K162" t="n">
-        <v>0.005935839727952611</v>
+        <v>0.006028909724901164</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.82638428415517</v>
+        <v>13.81759696889749</v>
       </c>
       <c r="C163" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D163" t="n">
-        <v>12.45897134762576</v>
+        <v>12.46242919603167</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0001327421755820959</v>
+        <v>7.36143290505882e-05</v>
       </c>
       <c r="F163" t="n">
-        <v>12.45897134762576</v>
+        <v>12.46242919603167</v>
       </c>
       <c r="G163" t="n">
-        <v>0.02085030631633418</v>
+        <v>0.02073027205682747</v>
       </c>
       <c r="H163" t="n">
-        <v>13.82638428415517</v>
+        <v>13.81759696889749</v>
       </c>
       <c r="I163" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J163" t="n">
-        <v>13.82638428415517</v>
+        <v>13.81759696889749</v>
       </c>
       <c r="K163" t="n">
-        <v>0.005374467415860586</v>
+        <v>0.005456771865091521</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>13.88325652474161</v>
+        <v>13.87470045462229</v>
       </c>
       <c r="C164" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D164" t="n">
-        <v>12.50744795812339</v>
+        <v>12.51081481051862</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0001241359844574522</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F164" t="n">
-        <v>12.50744795812339</v>
+        <v>12.51081481051862</v>
       </c>
       <c r="G164" t="n">
-        <v>0.01921636566334235</v>
+        <v>0.01910651099031195</v>
       </c>
       <c r="H164" t="n">
-        <v>13.88325652474161</v>
+        <v>13.87470045462229</v>
       </c>
       <c r="I164" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J164" t="n">
-        <v>13.88325652474161</v>
+        <v>13.87470045462229</v>
       </c>
       <c r="K164" t="n">
-        <v>0.004866612988531871</v>
+        <v>0.004939949964401081</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>13.94012876532805</v>
+        <v>13.93180394034708</v>
       </c>
       <c r="C165" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D165" t="n">
-        <v>12.55592456862101</v>
+        <v>12.55920042500556</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0001180826817126163</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F165" t="n">
-        <v>12.55592456862101</v>
+        <v>12.55920042500556</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0176575099096682</v>
+        <v>0.01755303526152617</v>
       </c>
       <c r="H165" t="n">
-        <v>13.94012876532805</v>
+        <v>13.93180394034708</v>
       </c>
       <c r="I165" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J165" t="n">
-        <v>13.94012876532805</v>
+        <v>13.93180394034708</v>
       </c>
       <c r="K165" t="n">
-        <v>0.004409314772161312</v>
+        <v>0.004472549538894134</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13.99700100591449</v>
+        <v>13.98890742607188</v>
       </c>
       <c r="C166" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D166" t="n">
-        <v>12.60440117911864</v>
+        <v>12.60758603949251</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0001138093358567956</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F166" t="n">
-        <v>12.60440117911864</v>
+        <v>12.60758603949251</v>
       </c>
       <c r="G166" t="n">
-        <v>0.01617092592430733</v>
+        <v>0.01607721732119947</v>
       </c>
       <c r="H166" t="n">
-        <v>13.99700100591449</v>
+        <v>13.98890742607188</v>
       </c>
       <c r="I166" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J166" t="n">
-        <v>13.99700100591449</v>
+        <v>13.98890742607188</v>
       </c>
       <c r="K166" t="n">
-        <v>0.003994883593059597</v>
+        <v>0.004051671647768738</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>14.05387324650093</v>
+        <v>14.04601091179668</v>
       </c>
       <c r="C167" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D167" t="n">
-        <v>12.65287778961627</v>
+        <v>12.65597165397945</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F167" t="n">
-        <v>12.65287778961627</v>
+        <v>12.65597165397945</v>
       </c>
       <c r="G167" t="n">
-        <v>0.01476752759061848</v>
+        <v>0.01468067181173648</v>
       </c>
       <c r="H167" t="n">
-        <v>14.05387324650093</v>
+        <v>14.04601091179668</v>
       </c>
       <c r="I167" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J167" t="n">
-        <v>14.05387324650093</v>
+        <v>14.04601091179668</v>
       </c>
       <c r="K167" t="n">
-        <v>0.003621879617234688</v>
+        <v>0.003670999281812971</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>14.11074548708737</v>
+        <v>14.10311439752148</v>
       </c>
       <c r="C168" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D168" t="n">
-        <v>12.70135440011389</v>
+        <v>12.7043572684664</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F168" t="n">
-        <v>12.70135440011389</v>
+        <v>12.7043572684664</v>
       </c>
       <c r="G168" t="n">
-        <v>0.01343657457564637</v>
+        <v>0.01335743839542616</v>
       </c>
       <c r="H168" t="n">
-        <v>14.11074548708737</v>
+        <v>14.10311439752148</v>
       </c>
       <c r="I168" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J168" t="n">
-        <v>14.11074548708737</v>
+        <v>14.10311439752148</v>
       </c>
       <c r="K168" t="n">
-        <v>0.003285575899024255</v>
+        <v>0.003329036986629874</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>14.16761772767381</v>
+        <v>14.16021788324628</v>
       </c>
       <c r="C169" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D169" t="n">
-        <v>12.74983101061152</v>
+        <v>12.75274288295334</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>12.74983101061152</v>
+        <v>12.75274288295334</v>
       </c>
       <c r="G169" t="n">
-        <v>0.01218042795795957</v>
+        <v>0.01210624443902255</v>
       </c>
       <c r="H169" t="n">
-        <v>14.16761772767381</v>
+        <v>14.16021788324628</v>
       </c>
       <c r="I169" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J169" t="n">
-        <v>14.16761772767381</v>
+        <v>14.16021788324628</v>
       </c>
       <c r="K169" t="n">
-        <v>0.00298210773835078</v>
+        <v>0.003019778970908504</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>14.22448996826025</v>
+        <v>14.21732136897108</v>
       </c>
       <c r="C170" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D170" t="n">
-        <v>12.79830762110915</v>
+        <v>12.80112849744028</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F170" t="n">
-        <v>12.79830762110915</v>
+        <v>12.80112849744028</v>
       </c>
       <c r="G170" t="n">
-        <v>0.01099266385504929</v>
+        <v>0.01092698412401034</v>
       </c>
       <c r="H170" t="n">
-        <v>14.22448996826025</v>
+        <v>14.21732136897108</v>
       </c>
       <c r="I170" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J170" t="n">
-        <v>14.22448996826025</v>
+        <v>14.21732136897108</v>
       </c>
       <c r="K170" t="n">
-        <v>0.002708077507317968</v>
+        <v>0.002741377185485862</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>14.28136220884669</v>
+        <v>14.27442485469588</v>
       </c>
       <c r="C171" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D171" t="n">
-        <v>12.84678423160677</v>
+        <v>12.84951411192723</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F171" t="n">
-        <v>12.84678423160677</v>
+        <v>12.84951411192723</v>
       </c>
       <c r="G171" t="n">
-        <v>0.00988499127972526</v>
+        <v>0.009824769327045178</v>
       </c>
       <c r="H171" t="n">
-        <v>14.28136220884669</v>
+        <v>14.27442485469588</v>
       </c>
       <c r="I171" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J171" t="n">
-        <v>14.28136220884669</v>
+        <v>14.27442485469588</v>
       </c>
       <c r="K171" t="n">
-        <v>0.00245747962273674</v>
+        <v>0.002487294842499529</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>14.33823444943312</v>
+        <v>14.33152834042068</v>
       </c>
       <c r="C172" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D172" t="n">
-        <v>12.8952608421044</v>
+        <v>12.89789972641417</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F172" t="n">
-        <v>12.8952608421044</v>
+        <v>12.89789972641417</v>
       </c>
       <c r="G172" t="n">
-        <v>0.008845317226351946</v>
+        <v>0.008790996695422324</v>
       </c>
       <c r="H172" t="n">
-        <v>14.33823444943312</v>
+        <v>14.33152834042068</v>
       </c>
       <c r="I172" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J172" t="n">
-        <v>14.33823444943312</v>
+        <v>14.33152834042068</v>
       </c>
       <c r="K172" t="n">
-        <v>0.002229412531858551</v>
+        <v>0.002254925696211203</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>14.39510669001956</v>
+        <v>14.38863182614548</v>
       </c>
       <c r="C173" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D173" t="n">
-        <v>12.94373745260202</v>
+        <v>12.94628534090112</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F173" t="n">
-        <v>12.94373745260202</v>
+        <v>12.94628534090112</v>
       </c>
       <c r="G173" t="n">
-        <v>0.007878734148148155</v>
+        <v>0.007829767414605858</v>
       </c>
       <c r="H173" t="n">
-        <v>14.39510669001956</v>
+        <v>14.38863182614548</v>
       </c>
       <c r="I173" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J173" t="n">
-        <v>14.39510669001956</v>
+        <v>14.38863182614548</v>
       </c>
       <c r="K173" t="n">
-        <v>0.002018503788501046</v>
+        <v>0.002041728418158494</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>14.451978930606</v>
+        <v>14.44573531187028</v>
       </c>
       <c r="C174" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D174" t="n">
-        <v>12.99221406309965</v>
+        <v>12.99467095538806</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>12.99221406309965</v>
+        <v>12.99467095538806</v>
       </c>
       <c r="G174" t="n">
-        <v>0.00698135974789318</v>
+        <v>0.006938142947434287</v>
       </c>
       <c r="H174" t="n">
-        <v>14.451978930606</v>
+        <v>14.44573531187028</v>
       </c>
       <c r="I174" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J174" t="n">
-        <v>14.451978930606</v>
+        <v>14.44573531187028</v>
       </c>
       <c r="K174" t="n">
-        <v>0.001822853624224025</v>
+        <v>0.001843530416461386</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>14.50885117119244</v>
+        <v>14.50283879759507</v>
       </c>
       <c r="C175" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D175" t="n">
-        <v>13.04069067359728</v>
+        <v>13.04305656987501</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F175" t="n">
-        <v>13.04069067359728</v>
+        <v>13.04305656987501</v>
       </c>
       <c r="G175" t="n">
-        <v>0.006157928033899984</v>
+        <v>0.006119641178509821</v>
       </c>
       <c r="H175" t="n">
-        <v>14.50885117119244</v>
+        <v>14.50283879759507</v>
       </c>
       <c r="I175" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J175" t="n">
-        <v>14.50885117119244</v>
+        <v>14.50283879759507</v>
       </c>
       <c r="K175" t="n">
-        <v>0.001640022927921018</v>
+        <v>0.001658930585172715</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>14.56572341177888</v>
+        <v>14.55994228331987</v>
       </c>
       <c r="C176" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D176" t="n">
-        <v>13.0891672840949</v>
+        <v>13.09144218436195</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>13.0891672840949</v>
+        <v>13.09144218436195</v>
       </c>
       <c r="G176" t="n">
-        <v>0.00540073163022488</v>
+        <v>0.005366481220376266</v>
       </c>
       <c r="H176" t="n">
-        <v>14.56572341177888</v>
+        <v>14.55994228331987</v>
       </c>
       <c r="I176" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J176" t="n">
-        <v>14.56572341177888</v>
+        <v>14.55994228331987</v>
       </c>
       <c r="K176" t="n">
-        <v>0.001471408236678671</v>
+        <v>0.001487834797696082</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>14.62259565236532</v>
+        <v>14.61704576904467</v>
       </c>
       <c r="C177" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D177" t="n">
-        <v>13.13764389459253</v>
+        <v>13.13982779884889</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>13.13764389459253</v>
+        <v>13.13982779884889</v>
       </c>
       <c r="G177" t="n">
-        <v>0.004710398230689254</v>
+        <v>0.00468087221605023</v>
       </c>
       <c r="H177" t="n">
-        <v>14.62259565236532</v>
+        <v>14.61704576904467</v>
       </c>
       <c r="I177" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J177" t="n">
-        <v>14.62259565236532</v>
+        <v>14.61704576904467</v>
       </c>
       <c r="K177" t="n">
-        <v>0.00131348676275606</v>
+        <v>0.001328488804778264</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>14.67946789295176</v>
+        <v>14.67414925476947</v>
       </c>
       <c r="C178" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D178" t="n">
-        <v>13.18612050509016</v>
+        <v>13.18821341333584</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>13.18612050509016</v>
+        <v>13.18821341333584</v>
       </c>
       <c r="G178" t="n">
-        <v>0.004084842987871704</v>
+        <v>0.00405923371051927</v>
       </c>
       <c r="H178" t="n">
-        <v>14.67946789295176</v>
+        <v>14.67414925476947</v>
       </c>
       <c r="I178" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J178" t="n">
-        <v>14.67946789295176</v>
+        <v>14.67414925476947</v>
       </c>
       <c r="K178" t="n">
-        <v>0.001165126050421118</v>
+        <v>0.001178687039571765</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>14.7363401335382</v>
+        <v>14.73125274049427</v>
       </c>
       <c r="C179" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D179" t="n">
-        <v>13.23459711558778</v>
+        <v>13.23659902782278</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>13.23459711558778</v>
+        <v>13.23659902782278</v>
       </c>
       <c r="G179" t="n">
-        <v>0.003521383628056365</v>
+        <v>0.003499602404649276</v>
       </c>
       <c r="H179" t="n">
-        <v>14.7363401335382</v>
+        <v>14.73125274049427</v>
       </c>
       <c r="I179" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J179" t="n">
-        <v>14.7363401335382</v>
+        <v>14.73125274049427</v>
       </c>
       <c r="K179" t="n">
-        <v>0.001026882141551175</v>
+        <v>0.001038873710076732</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>14.79321237412464</v>
+        <v>14.78835622621907</v>
       </c>
       <c r="C180" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D180" t="n">
-        <v>13.28307372608541</v>
+        <v>13.28498464230973</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>13.28307372608541</v>
+        <v>13.28498464230973</v>
       </c>
       <c r="G180" t="n">
-        <v>0.00301529050466664</v>
+        <v>0.002996253878434847</v>
       </c>
       <c r="H180" t="n">
-        <v>14.79321237412464</v>
+        <v>14.78835622621907</v>
       </c>
       <c r="I180" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J180" t="n">
-        <v>14.79321237412464</v>
+        <v>14.78835622621907</v>
       </c>
       <c r="K180" t="n">
-        <v>0.000900734259563171</v>
+        <v>0.0009111108807736935</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>14.85008461471108</v>
+        <v>14.84545971194387</v>
       </c>
       <c r="C181" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D181" t="n">
-        <v>13.33155033658304</v>
+        <v>13.33337025679667</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>13.33155033658304</v>
+        <v>13.33337025679667</v>
       </c>
       <c r="G181" t="n">
-        <v>0.002563839171573675</v>
+        <v>0.002547667437696586</v>
       </c>
       <c r="H181" t="n">
-        <v>14.85008461471108</v>
+        <v>14.84545971194387</v>
       </c>
       <c r="I181" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J181" t="n">
-        <v>14.85008461471108</v>
+        <v>14.84545971194387</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0007851162103437834</v>
+        <v>0.0007942011961685637</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>14.90695685529751</v>
+        <v>14.90256319766867</v>
       </c>
       <c r="C182" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D182" t="n">
-        <v>13.38002694708066</v>
+        <v>13.38175587128362</v>
       </c>
       <c r="E182" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>13.38002694708066</v>
+        <v>13.38175587128362</v>
       </c>
       <c r="G182" t="n">
-        <v>0.002167985228338665</v>
+        <v>0.002154951399217722</v>
       </c>
       <c r="H182" t="n">
-        <v>14.90695685529751</v>
+        <v>14.90256319766867</v>
       </c>
       <c r="I182" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J182" t="n">
-        <v>14.90695685529751</v>
+        <v>14.90256319766867</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0006797092243892921</v>
+        <v>0.0006874333293226887</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>14.96382909588395</v>
+        <v>14.95966668339347</v>
       </c>
       <c r="C183" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D183" t="n">
-        <v>13.42850355757829</v>
+        <v>13.43014148577056</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>13.42850355757829</v>
+        <v>13.43014148577056</v>
       </c>
       <c r="G183" t="n">
-        <v>0.001820424812220021</v>
+        <v>0.001809640195481682</v>
       </c>
       <c r="H183" t="n">
-        <v>14.96382909588395</v>
+        <v>14.95966668339347</v>
       </c>
       <c r="I183" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J183" t="n">
-        <v>14.96382909588395</v>
+        <v>14.95966668339347</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0005850004821495971</v>
+        <v>0.0005913647517210422</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>15.02070133647039</v>
+        <v>15.01677016911827</v>
       </c>
       <c r="C184" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D184" t="n">
-        <v>13.47698016807591</v>
+        <v>13.47852710025751</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>13.47698016807591</v>
+        <v>13.47852710025751</v>
       </c>
       <c r="G184" t="n">
-        <v>0.001517366364182833</v>
+        <v>0.001508265559407945</v>
       </c>
       <c r="H184" t="n">
-        <v>15.02070133647039</v>
+        <v>15.01677016911827</v>
       </c>
       <c r="I184" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J184" t="n">
-        <v>15.02070133647039</v>
+        <v>15.01677016911827</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0005008148983599442</v>
+        <v>0.0005062161794117462</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>15.07757357705683</v>
+        <v>15.07387365484307</v>
       </c>
       <c r="C185" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D185" t="n">
-        <v>13.52545677857354</v>
+        <v>13.52691271474445</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>13.52545677857354</v>
+        <v>13.52691271474445</v>
       </c>
       <c r="G185" t="n">
-        <v>0.00125417640390208</v>
+        <v>0.001246760285969245</v>
       </c>
       <c r="H185" t="n">
-        <v>15.07757357705683</v>
+        <v>15.07387365484307</v>
       </c>
       <c r="I185" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J185" t="n">
-        <v>15.07757357705683</v>
+        <v>15.07387365484307</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0004265679644609721</v>
+        <v>0.0004310916738396855</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>15.13444581764327</v>
+        <v>15.13097714056786</v>
       </c>
       <c r="C186" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D186" t="n">
-        <v>13.57393338907117</v>
+        <v>13.57529832923139</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>13.57393338907117</v>
+        <v>13.57529832923139</v>
       </c>
       <c r="G186" t="n">
-        <v>0.001035084033365738</v>
+        <v>0.001029582519396566</v>
       </c>
       <c r="H186" t="n">
-        <v>15.13444581764327</v>
+        <v>15.13097714056786</v>
       </c>
       <c r="I186" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J186" t="n">
-        <v>15.13444581764327</v>
+        <v>15.13097714056786</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0003618689909669081</v>
+        <v>0.0003656057123404371</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>15.19131805822971</v>
+        <v>15.18808062629266</v>
       </c>
       <c r="C187" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D187" t="n">
-        <v>13.62240999956879</v>
+        <v>13.62368394371834</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>13.62240999956879</v>
+        <v>13.62368394371834</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0008490807581787965</v>
+        <v>0.0008445989801563399</v>
       </c>
       <c r="H187" t="n">
-        <v>15.19131805822971</v>
+        <v>15.18808062629266</v>
       </c>
       <c r="I187" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J187" t="n">
-        <v>15.19131805822971</v>
+        <v>15.18808062629266</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0003066395356295041</v>
+        <v>0.000309544776115626</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>15.24819029881614</v>
+        <v>15.24518411201746</v>
       </c>
       <c r="C188" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D188" t="n">
-        <v>13.67088661006642</v>
+        <v>13.67206955820528</v>
       </c>
       <c r="E188" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>13.67088661006642</v>
+        <v>13.67206955820528</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0006917687334741783</v>
+        <v>0.0006882082185605577</v>
       </c>
       <c r="H188" t="n">
-        <v>15.24819029881614</v>
+        <v>15.24518411201746</v>
       </c>
       <c r="I188" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J188" t="n">
-        <v>15.24819029881614</v>
+        <v>15.24518411201746</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0002596531144550151</v>
+        <v>0.0002619831971763369</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>15.30506253940258</v>
+        <v>15.30228759774226</v>
       </c>
       <c r="C189" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D189" t="n">
-        <v>13.71936322056404</v>
+        <v>13.72045517269223</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>13.71936322056404</v>
+        <v>13.72045517269223</v>
       </c>
       <c r="G189" t="n">
-        <v>0.000559933443999624</v>
+        <v>0.0005571022289677321</v>
       </c>
       <c r="H189" t="n">
-        <v>15.30506253940258</v>
+        <v>15.30228759774226</v>
       </c>
       <c r="I189" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J189" t="n">
-        <v>15.30506253940258</v>
+        <v>15.30228759774226</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0002201128193918331</v>
+        <v>0.000221952422293456</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>15.36193477998902</v>
+        <v>15.35939108346706</v>
       </c>
       <c r="C190" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D190" t="n">
-        <v>13.76783983106167</v>
+        <v>13.76884078717917</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>13.76783983106167</v>
+        <v>13.76884078717917</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0004543050662944002</v>
+        <v>0.0004524715651593367</v>
       </c>
       <c r="H190" t="n">
-        <v>15.36193477998902</v>
+        <v>15.35939108346706</v>
       </c>
       <c r="I190" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J190" t="n">
-        <v>15.36193477998902</v>
+        <v>15.35939108346706</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0001872967026458309</v>
+        <v>0.0001886710537704521</v>
       </c>
     </row>
     <row r="191">
@@ -7105,34 +7105,34 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>15.41880702057546</v>
+        <v>15.41649456919186</v>
       </c>
       <c r="C191" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D191" t="n">
-        <v>13.8163164415593</v>
+        <v>13.81722640166612</v>
       </c>
       <c r="E191" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>13.8163164415593</v>
+        <v>13.81722640166612</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0003700416417552921</v>
+        <v>0.0003686324784239861</v>
       </c>
       <c r="H191" t="n">
-        <v>15.41880702057546</v>
+        <v>15.41649456919186</v>
       </c>
       <c r="I191" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J191" t="n">
-        <v>15.41880702057546</v>
+        <v>15.41649456919186</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0001605337819679272</v>
+        <v>0.0001615313643649926</v>
       </c>
     </row>
     <row r="192">
@@ -7140,34 +7140,34 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>15.4756792611619</v>
+        <v>15.47359805491666</v>
       </c>
       <c r="C192" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D192" t="n">
-        <v>13.86479305205692</v>
+        <v>13.86561201615306</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>13.86479305205692</v>
+        <v>13.86561201615306</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0003014325864569445</v>
+        <v>0.0003003692503188175</v>
       </c>
       <c r="H192" t="n">
-        <v>15.4756792611619</v>
+        <v>15.47359805491666</v>
       </c>
       <c r="I192" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J192" t="n">
-        <v>15.4756792611619</v>
+        <v>15.47359805491666</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0001390044223631402</v>
+        <v>0.0001396732255908982</v>
       </c>
     </row>
     <row r="193">
@@ -7175,34 +7175,34 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>15.53255150174834</v>
+        <v>15.53070154064146</v>
       </c>
       <c r="C193" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D193" t="n">
-        <v>13.91326966255455</v>
+        <v>13.91399763064001</v>
       </c>
       <c r="E193" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>13.91326966255455</v>
+        <v>13.91399763064001</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0002462955621122625</v>
+        <v>0.0002455097093621695</v>
       </c>
       <c r="H193" t="n">
-        <v>15.53255150174834</v>
+        <v>15.53070154064146</v>
       </c>
       <c r="I193" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J193" t="n">
-        <v>15.53255150174834</v>
+        <v>15.53070154064146</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0001229183692813153</v>
+        <v>0.0001233447292844796</v>
       </c>
     </row>
     <row r="194">
@@ -7210,34 +7210,34 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>15.58942374233478</v>
+        <v>15.58780502636626</v>
       </c>
       <c r="C194" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D194" t="n">
-        <v>13.96174627305218</v>
+        <v>13.96238324512695</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>13.96174627305218</v>
+        <v>13.96238324512695</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0002037093285674269</v>
+        <v>0.0002032459534530562</v>
       </c>
       <c r="H194" t="n">
-        <v>15.58942374233478</v>
+        <v>15.58780502636626</v>
       </c>
       <c r="I194" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J194" t="n">
-        <v>15.58942374233478</v>
+        <v>15.58780502636626</v>
       </c>
       <c r="K194" t="n">
-        <v>0.000110496726182311</v>
+        <v>0.0001108008873823251</v>
       </c>
     </row>
     <row r="195">
@@ -7245,34 +7245,34 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>15.64629598292122</v>
+        <v>15.64490851209106</v>
       </c>
       <c r="C195" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D195" t="n">
-        <v>14.0102228835498</v>
+        <v>14.0107688596139</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>14.0102228835498</v>
+        <v>14.0107688596139</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0001722323683320331</v>
+        <v>0.0001719669971681895</v>
       </c>
       <c r="H195" t="n">
-        <v>15.64629598292122</v>
+        <v>15.64490851209106</v>
       </c>
       <c r="I195" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J195" t="n">
-        <v>15.64629598292122</v>
+        <v>15.64490851209106</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0001005814318073061</v>
+        <v>0.000100791680971294</v>
       </c>
     </row>
     <row r="196">
@@ -7280,34 +7280,34 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>15.70316822350766</v>
+        <v>15.70201199781586</v>
       </c>
       <c r="C196" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D196" t="n">
-        <v>14.05869949404743</v>
+        <v>14.05915447410084</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>14.05869949404743</v>
+        <v>14.05915447410084</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0001511532558249377</v>
+        <v>0.000150973243951413</v>
       </c>
       <c r="H196" t="n">
-        <v>15.70316822350766</v>
+        <v>15.70201199781586</v>
       </c>
       <c r="I196" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J196" t="n">
-        <v>15.70316822350766</v>
+        <v>15.70201199781586</v>
       </c>
       <c r="K196" t="n">
-        <v>9.276965009656105e-05</v>
+        <v>9.290940942041321e-05</v>
       </c>
     </row>
     <row r="197">
@@ -7315,34 +7315,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>15.7600404640941</v>
+        <v>15.75911548354065</v>
       </c>
       <c r="C197" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D197" t="n">
-        <v>14.10717610454506</v>
+        <v>14.10754008858778</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>14.10717610454506</v>
+        <v>14.10754008858778</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0001348407606736396</v>
+        <v>0.0001347246608830874</v>
       </c>
       <c r="H197" t="n">
-        <v>15.7600404640941</v>
+        <v>15.75911548354065</v>
       </c>
       <c r="I197" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J197" t="n">
-        <v>15.7600404640941</v>
+        <v>15.75911548354065</v>
       </c>
       <c r="K197" t="n">
-        <v>8.669594386446149e-05</v>
+        <v>8.678415889751486e-05</v>
       </c>
     </row>
     <row r="198">
@@ -7350,34 +7350,34 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>15.81691270468053</v>
+        <v>15.81621896926545</v>
       </c>
       <c r="C198" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D198" t="n">
-        <v>14.15565271504268</v>
+        <v>14.15592570307473</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>14.15565271504268</v>
+        <v>14.15592570307473</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0001228870441799042</v>
+        <v>0.0001228320593188432</v>
       </c>
       <c r="H198" t="n">
-        <v>15.81691270468053</v>
+        <v>15.81621896926545</v>
       </c>
       <c r="I198" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J198" t="n">
-        <v>15.81691270468053</v>
+        <v>15.81621896926545</v>
       </c>
       <c r="K198" t="n">
-        <v>8.203632763723265e-05</v>
+        <v>8.208795905645865e-05</v>
       </c>
     </row>
     <row r="199">
@@ -7385,34 +7385,34 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>15.87378494526697</v>
+        <v>15.87332245499025</v>
       </c>
       <c r="C199" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D199" t="n">
-        <v>14.20412932554031</v>
+        <v>14.20431131756167</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>14.20412932554031</v>
+        <v>14.20431131756167</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0001139389853358286</v>
+        <v>0.0001139102721981131</v>
       </c>
       <c r="H199" t="n">
-        <v>15.87378494526697</v>
+        <v>15.87332245499025</v>
       </c>
       <c r="I199" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J199" t="n">
-        <v>15.87378494526697</v>
+        <v>15.87332245499025</v>
       </c>
       <c r="K199" t="n">
-        <v>7.850967170898583e-05</v>
+        <v>7.853624016152667e-05</v>
       </c>
     </row>
     <row r="200">
@@ -7420,34 +7420,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>15.93065718585341</v>
+        <v>15.93042594071505</v>
       </c>
       <c r="C200" t="n">
         <v>0.0001073557062325349</v>
       </c>
       <c r="D200" t="n">
-        <v>14.25260593603793</v>
+        <v>14.25269693204862</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>14.25260593603793</v>
+        <v>14.25269693204862</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0001073030004996839</v>
+        <v>0.0001072918619683868</v>
       </c>
       <c r="H200" t="n">
-        <v>15.93065718585341</v>
+        <v>15.93042594071505</v>
       </c>
       <c r="I200" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J200" t="n">
-        <v>15.93065718585341</v>
+        <v>15.93042594071505</v>
       </c>
       <c r="K200" t="n">
-        <v>7.587695092839251e-05</v>
+        <v>7.588709257108788e-05</v>
       </c>
     </row>
     <row r="201">
@@ -7464,7 +7464,7 @@
         <v>14.30108254653556</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0001126356511338229</v>
+        <v>7.187804900871086e-05</v>
       </c>
       <c r="F201" t="n">
         <v>14.30108254653556</v>
@@ -7476,7 +7476,7 @@
         <v>15.98752942643985</v>
       </c>
       <c r="I201" t="n">
-        <v>0.000124636522857198</v>
+        <v>8.936021186552381e-05</v>
       </c>
       <c r="J201" t="n">
         <v>15.98752942643985</v>
